--- a/DevSimdEscrow/src/test/resources/DigitalEscrowCredantials.xlsx
+++ b/DevSimdEscrow/src/test/resources/DigitalEscrowCredantials.xlsx
@@ -1,23 +1,24 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="26731"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27531"/>
   <workbookPr defaultThemeVersion="166925"/>
-  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+  <mc:AlternateContent>
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Vouchpay office\Digital escrow\Automation testing\Automate Escrow\src\test\resources\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Guruprasad V\git\SimDigitalescrowAutomation\DevSimdEscrow\src\test\resources\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6E709483-BB81-41A0-A062-968263A42E50}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{BF444022-C4AF-4487-879A-1CA43307D0D8}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="4800" yWindow="696" windowWidth="17280" windowHeight="8964" xr2:uid="{07CC3ADB-776B-40AC-A05A-841AB22C93CF}"/>
+    <workbookView xWindow="5496" yWindow="744" windowWidth="17280" windowHeight="8880" activeTab="1" xr2:uid="{07CC3ADB-776B-40AC-A05A-841AB22C93CF}"/>
   </bookViews>
   <sheets>
     <sheet name="payout" sheetId="1" r:id="rId1"/>
+    <sheet name="subEscrow" sheetId="2" r:id="rId2"/>
   </sheets>
   <calcPr calcId="191029"/>
   <extLst>
-    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
+    <ext uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
     </ext>
   </extLst>
@@ -25,7 +26,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="6" uniqueCount="6">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1396" uniqueCount="661">
   <si>
     <t>mb.no</t>
   </si>
@@ -43,12 +44,1978 @@
   </si>
   <si>
     <t>no payments more</t>
+  </si>
+  <si>
+    <t>Nanjegowda Santhosh-ULK-BU0B95FC0474</t>
+  </si>
+  <si>
+    <t>₹ 0</t>
+  </si>
+  <si>
+    <t>Ashok Manda-ULK-BU0BEDBBE54C</t>
+  </si>
+  <si>
+    <t>Vanavarayan K-ULK-BU11C0DF15F2</t>
+  </si>
+  <si>
+    <t>Kamlesh Kanubhai Dhobi-ULK-BU122F968DA5</t>
+  </si>
+  <si>
+    <t>Bidaraguppe Shashidhar Gokul-ULK-BU1243563DEE</t>
+  </si>
+  <si>
+    <t>Aman Goyal-ULK-BU15F2F9451C</t>
+  </si>
+  <si>
+    <t>Akash kumar Singh-ULK-BU18EC95D531</t>
+  </si>
+  <si>
+    <t>Murugesangajendran Sivam-ULK-BU1CB109516B</t>
+  </si>
+  <si>
+    <t>Kamlesh Kanubhai Dhobi-ULK-BU22F968DA5D</t>
+  </si>
+  <si>
+    <t>Vanavarayan K-ULK-BU2EAFC6B0A0</t>
+  </si>
+  <si>
+    <t>Appala Naidu Ganivada-ULK-BU30C1B12E01</t>
+  </si>
+  <si>
+    <t>Vanavarayan K-ULK-BU33B23C49CA</t>
+  </si>
+  <si>
+    <t>Arun Acharya</t>
+  </si>
+  <si>
+    <t>Vanavarayan K-ULK-BU3A9D26F845</t>
+  </si>
+  <si>
+    <t>Sony Parveen-ULK-BU3E58B5EFD5</t>
+  </si>
+  <si>
+    <t>Aman Goyal-ULK-BU3E60E8B562</t>
+  </si>
+  <si>
+    <t>Shrigandh Dhanapal-ULK-BU4070AB6D00</t>
+  </si>
+  <si>
+    <t>Bidaraguppe Shashidhar Gokul-ULK-BU43563DEEFF</t>
+  </si>
+  <si>
+    <t>Nithin Vidya-ULK-BU47EA63404A</t>
+  </si>
+  <si>
+    <t>Prakhar Gupta-ULK-BU4C5B170CEA</t>
+  </si>
+  <si>
+    <t>Arun Acharya-ULK-BU4F60F8B1AE</t>
+  </si>
+  <si>
+    <t>Parmod Kumar-ULK-BU516F124356</t>
+  </si>
+  <si>
+    <t>Arun Acharya-ULK-BU5569EB9C0F</t>
+  </si>
+  <si>
+    <t>Anirudha Anand Jagdale-ULK-BU55DF811127</t>
+  </si>
+  <si>
+    <t>Vanavarayan K-ULK-BU562FFD995B</t>
+  </si>
+  <si>
+    <t>Vanavarayan K-ULK-BU58BC11FD19</t>
+  </si>
+  <si>
+    <t>Arun Acharya-ULK-BU59B2968B3F</t>
+  </si>
+  <si>
+    <t>Aman Goyal-ULK-BU5D5FA9B996</t>
+  </si>
+  <si>
+    <t>Appala Naidu Ganivada-ULK-BU5FE3DCB724</t>
+  </si>
+  <si>
+    <t>Sony Parveen-ULK-BU6095FF353F</t>
+  </si>
+  <si>
+    <t>Giriraj Singh-ULK-BU65AA414B5E</t>
+  </si>
+  <si>
+    <t>₹ 32.03</t>
+  </si>
+  <si>
+    <t>Arun Acharya-ULK-BU6FFDC29769</t>
+  </si>
+  <si>
+    <t>Nanjegowda Santhosh-ULK-BU730638B7C7</t>
+  </si>
+  <si>
+    <t>Shrigandh Dhanapal-ULK-BU732B43DF66</t>
+  </si>
+  <si>
+    <t>Aman Goyal-ULK-BU774BD37D03</t>
+  </si>
+  <si>
+    <t>Ramji Dass-ULK-BU78E17B30F2</t>
+  </si>
+  <si>
+    <t>Vanavarayan K-ULK-BU798DDBDD89</t>
+  </si>
+  <si>
+    <t>Parmod Kumar-ULK-BU79B516F124</t>
+  </si>
+  <si>
+    <t>Vanavarayan K-ULK-BU7C157F12A5</t>
+  </si>
+  <si>
+    <t>Nanjegowda Santhosh-ULK-BU7C7091B195</t>
+  </si>
+  <si>
+    <t>Shrigandh Dhanapal-ULK-BU7FAFE74E7D</t>
+  </si>
+  <si>
+    <t>Vanavarayan K-ULK-BU8896AA54ED</t>
+  </si>
+  <si>
+    <t>Akash kumar Singh-ULK-BU8EC95D5319</t>
+  </si>
+  <si>
+    <t>Vanavarayan K-ULK-BU9304D0F86F</t>
+  </si>
+  <si>
+    <t>Sony Parveen-ULK-BU95FF353F06</t>
+  </si>
+  <si>
+    <t>Ahmad Khan-ULK-BU9A45FB1EFA</t>
+  </si>
+  <si>
+    <t>Arun Acharya-ULK-BU9C0F15222E</t>
+  </si>
+  <si>
+    <t>Vanavarayan K-ULK-BU9D78E45415</t>
+  </si>
+  <si>
+    <t>Arun Acharya-ULK-BU9EB9C0F152</t>
+  </si>
+  <si>
+    <t>Tejas Venkataramani-ULK-BU9FC30367B6</t>
+  </si>
+  <si>
+    <t>Irfan Malik-ULK-BUA057E66676</t>
+  </si>
+  <si>
+    <t>Himanshu Mahendra-ULK-BUA08704CDF5</t>
+  </si>
+  <si>
+    <t>Vikas Lalji-ULK-BUA436F8E8CE</t>
+  </si>
+  <si>
+    <t>Kesapally Srujan-ULK-BUA45F35587D</t>
+  </si>
+  <si>
+    <t>Antim Rathaur-ULK-BUAC45BEFD65</t>
+  </si>
+  <si>
+    <t>₹ 1.05</t>
+  </si>
+  <si>
+    <t>Rajiv Kumar-ULK-BUB2E7B3B2E2</t>
+  </si>
+  <si>
+    <t>JAIMISH MIYANI -ULK-BUB43DF6694C</t>
+  </si>
+  <si>
+    <t>Shreyans Badoni-ULK-BUB8DFD85974</t>
+  </si>
+  <si>
+    <t>Vanavarayan K-ULK-BUC2FACAE06F</t>
+  </si>
+  <si>
+    <t>Abdul Jalil Khan-ULK-BUC38DE30C1B</t>
+  </si>
+  <si>
+    <t>Arun Acharya-ULK-BUC878686C21</t>
+  </si>
+  <si>
+    <t>Appala Naidu Ganivada-ULK-BUCAE06F1604</t>
+  </si>
+  <si>
+    <t>Vanavarayan K-ULK-BUCC19EC4119</t>
+  </si>
+  <si>
+    <t>Pratik Ramesh-ULK-BUD0612FF4BF</t>
+  </si>
+  <si>
+    <t>Abhinav Jain-ULK-BUD50817482A</t>
+  </si>
+  <si>
+    <t>Keyur Patel-ULK-BUD7CA4CC407</t>
+  </si>
+  <si>
+    <t>Rajiv Kumar-ULK-BUDC198A6F53</t>
+  </si>
+  <si>
+    <t>Ramji Dass-ULK-BUDDCD5128D7</t>
+  </si>
+  <si>
+    <t>Appala Naidu Ganivada-ULK-BUE144050A6E</t>
+  </si>
+  <si>
+    <t>Vanavarayan K-ULK-BUE8E184181C</t>
+  </si>
+  <si>
+    <t>Pratik Ramesh-ULK-BUE8FEDEA794</t>
+  </si>
+  <si>
+    <t>Arun Acharya-ULK-BUE94F1E18C4</t>
+  </si>
+  <si>
+    <t>Battu Sathyanarayana -ULK-BUEC69D2BBCC</t>
+  </si>
+  <si>
+    <t>Arun Acharya-ULK-BUEC805A2AE9</t>
+  </si>
+  <si>
+    <t>Vanavarayan K-ULK-BUECF8E9C821</t>
+  </si>
+  <si>
+    <t>Bidaraguppe Shashidhar Gokul-ULK-BUF1243563DE</t>
+  </si>
+  <si>
+    <t>Akshay Sanjay-ULK-BUF182812380</t>
+  </si>
+  <si>
+    <t>Ahmad Khan-ULK-BUF4DCB2A755</t>
+  </si>
+  <si>
+    <t>Ayush Pandey-ULK-BUF6446A1B87</t>
+  </si>
+  <si>
+    <t>Vanavarayan K-ULK-BUF9548301B3</t>
+  </si>
+  <si>
+    <t>Sahib Singh-ULK-BUFACAE06F16</t>
+  </si>
+  <si>
+    <t>Kambham Niswanth-ULK-BUFE74E7D513</t>
+  </si>
+  <si>
+    <t>Vanavarayan K-ULK-BU031DD79FB0</t>
+  </si>
+  <si>
+    <t>Vanavarayan K-ULK-BU07810E5909</t>
+  </si>
+  <si>
+    <t>Himanshu Mahendra-ULK-BU08704CDF5B</t>
+  </si>
+  <si>
+    <t>Vanavarayan K-ULK-BU08ABEF16AE</t>
+  </si>
+  <si>
+    <t>Alok Ranjan-ULK-BU0B03FAD6EB</t>
+  </si>
+  <si>
+    <t>Nanjegowda Santhosh-ULK-BU0D4310CC44</t>
+  </si>
+  <si>
+    <t>Vanavarayan K-ULK-BU0E59B2968B</t>
+  </si>
+  <si>
+    <t>Vanavarayan K-ULK-BU12EAFC6B0A</t>
+  </si>
+  <si>
+    <t>Vanavarayan K-ULK-BU133B23C49C</t>
+  </si>
+  <si>
+    <t>Appala Naidu Ganivada-ULK-BU13E0A7D775</t>
+  </si>
+  <si>
+    <t>Ahmad Khan-ULK-BU1EFAB6BF4D</t>
+  </si>
+  <si>
+    <t>Bidaraguppe Shashidhar Gokul-ULK-BU243563DEEF</t>
+  </si>
+  <si>
+    <t>Amit Asthana-ULK-BU2BB838C2EC</t>
+  </si>
+  <si>
+    <t>VANAVARAYAN K</t>
+  </si>
+  <si>
+    <t>₹ 15.96</t>
+  </si>
+  <si>
+    <t>Arun Acharya-ULK-BU35569EB9C0</t>
+  </si>
+  <si>
+    <t>Kevin Pauly-ULK-BU390697732B</t>
+  </si>
+  <si>
+    <t>Hitesh Suthar-ULK-BU391D393F7B</t>
+  </si>
+  <si>
+    <t>Sony Parveen-ULK-BU3F06393E8C</t>
+  </si>
+  <si>
+    <t>Pratik Ramesh-ULK-BU45D0612FF4</t>
+  </si>
+  <si>
+    <t>Mohammad Maveen-ULK-BU47832254F0</t>
+  </si>
+  <si>
+    <t>Vikas Lalji Patariya-ULK-BU49CAC1E907</t>
+  </si>
+  <si>
+    <t>Sunil Kumar M S-ULK-BU4CDE0D4310</t>
+  </si>
+  <si>
+    <t>Arun Acharya-ULK-BU4DC4FB64FB</t>
+  </si>
+  <si>
+    <t>Vanavarayan K-ULK-BU4FB64FB503</t>
+  </si>
+  <si>
+    <t>Abhinav Jain-ULK-BU50817482A7</t>
+  </si>
+  <si>
+    <t>Appala Naidu Ganivada-ULK-BU50E1854D80</t>
+  </si>
+  <si>
+    <t>Vanavarayan K-ULK-BU5319304D0F</t>
+  </si>
+  <si>
+    <t>Nithin Vidya-ULK-BU5390697732</t>
+  </si>
+  <si>
+    <t>Sony Parveen-ULK-BU53F06393E8</t>
+  </si>
+  <si>
+    <t>Aman Goyal-ULK-BU5415FFC10C</t>
+  </si>
+  <si>
+    <t>Vanavarayan K-ULK-BU5B92C9CFE8</t>
+  </si>
+  <si>
+    <t>Ahmad Khan-ULK-BU5FB1EFAB6B</t>
+  </si>
+  <si>
+    <t>Ravindra Daiwan Jadhav-ULK-BU656C156D68</t>
+  </si>
+  <si>
+    <t>Vanavarayan K-ULK-BU665AA414B5</t>
+  </si>
+  <si>
+    <t>VANAVARAYAN KULK-BU66A98ADB05</t>
+  </si>
+  <si>
+    <t>Kamlesh Kanubhai Dhobi-ULK-BU68DA5DA087</t>
+  </si>
+  <si>
+    <t>Siddharth Jain-ULK-BU696774BD37</t>
+  </si>
+  <si>
+    <t>Kevin Pauly-ULK-BU697732B43D</t>
+  </si>
+  <si>
+    <t>Arun Acharya-ULK-BU6B0A0E59B2</t>
+  </si>
+  <si>
+    <t>Peeyush Dixit-ULK-BU7A5F105012</t>
+  </si>
+  <si>
+    <t>Vanavarayan K-ULK-BU7B3B2E2886</t>
+  </si>
+  <si>
+    <t>K P Venkateswarlu-ULK-BU80F0A7878A</t>
+  </si>
+  <si>
+    <t>Vanavarayan K-ULK-BU82A3C2FACA</t>
+  </si>
+  <si>
+    <t>Dal Chand-ULK-BU82CA95C575</t>
+  </si>
+  <si>
+    <t>Arun Acharya-ULK-BU84DC4FB64F</t>
+  </si>
+  <si>
+    <t>Vanavarayan K-ULK-BU8BC11FD19E</t>
+  </si>
+  <si>
+    <t>Arun Acharya-ULK-BU983D5F5905</t>
+  </si>
+  <si>
+    <t>Vanavarayan K-ULK-BUA4AA47B9F1</t>
+  </si>
+  <si>
+    <t>Sanoj Kumar-ULK-BUA56C4B8D86</t>
+  </si>
+  <si>
+    <t>Nithin Vidya-ULK-BUA63404A4FD</t>
+  </si>
+  <si>
+    <t>Vanavarayan K-ULK-BUAA33DF2D3D</t>
+  </si>
+  <si>
+    <t>Appala Naidu Ganivada-ULK-BUAE06F16048</t>
+  </si>
+  <si>
+    <t>Vanavarayan K-ULK-BUB03FAD6EB3</t>
+  </si>
+  <si>
+    <t>Arun Acharya-ULK-BUB0A0E59B29</t>
+  </si>
+  <si>
+    <t>Abhishek Ginodia-ULK-BUB23E05A55A</t>
+  </si>
+  <si>
+    <t>Sudhir Kumar-ULK-BUB53EA68D12</t>
+  </si>
+  <si>
+    <t>Ashok Manda-ULK-BUBCCDEB9F60</t>
+  </si>
+  <si>
+    <t>Burra Srikanth-ULK-BUBE9AA2362C</t>
+  </si>
+  <si>
+    <t>Devesh Devidas-ULK-BUBEE41DDC5B</t>
+  </si>
+  <si>
+    <t>Vanavarayan K-ULK-BUBEFD65DB27</t>
+  </si>
+  <si>
+    <t>Ahmad Khan-ULK-BUBF4DCB2A75</t>
+  </si>
+  <si>
+    <t>Arun Acharya-ULK-BUC2C878686C</t>
+  </si>
+  <si>
+    <t>Arun Acharya-ULK-BUC4FB64FB50</t>
+  </si>
+  <si>
+    <t>Vanavarayan K-ULK-BUC7A7754388</t>
+  </si>
+  <si>
+    <t>Arun Acharya-ULK-BUC805A2AE94</t>
+  </si>
+  <si>
+    <t>Nithin Vidya-ULK-BUD539069773</t>
+  </si>
+  <si>
+    <t>Ketan Jagdish Pandit-ULK-BUDBE3AEB4BF</t>
+  </si>
+  <si>
+    <t>Vanavarayan K-ULK-BUDCB2A755DF</t>
+  </si>
+  <si>
+    <t>Sameer Khan-ULK-BUDCF24370AC</t>
+  </si>
+  <si>
+    <t>Kambham Niswanth-ULK-BUDD10E116BB</t>
+  </si>
+  <si>
+    <t>Nanjegowda Santhosh-ULK-BUDF77AD842F</t>
+  </si>
+  <si>
+    <t>Anirudha Anand Jagdale-ULK-BUDF81112735</t>
+  </si>
+  <si>
+    <t>Nanjegowda Santhosh-ULK-BUE0D4310CC4</t>
+  </si>
+  <si>
+    <t>Appala Naidu Ganivada-ULK-BUE1854D80A7</t>
+  </si>
+  <si>
+    <t>Nanjegowda Santhosh-ULK-BUE74E7D5133</t>
+  </si>
+  <si>
+    <t>Vikas Lalji Patariya-ULK-BUE907B8DB4A</t>
+  </si>
+  <si>
+    <t>Somvir Singh-ULK-BUECD5761F3A</t>
+  </si>
+  <si>
+    <t>Dal Chand-ULK-BUF2BB838C2E</t>
+  </si>
+  <si>
+    <t>Arun Acharya-ULK-BUF84DC4FB64</t>
+  </si>
+  <si>
+    <t>Vanavarayan K-ULK-BUF9630AC04B</t>
+  </si>
+  <si>
+    <t>Vanavarayan K-ULK-BUFA9B996290</t>
+  </si>
+  <si>
+    <t>Ahmad Khan-ULK-BUFB1EFAB6BF</t>
+  </si>
+  <si>
+    <t>Pavan Gupta-ULK-BUFCE619BE59</t>
+  </si>
+  <si>
+    <t>Manish -ULK-BU0970406108</t>
+  </si>
+  <si>
+    <t>Arun Acharya-ULK-BU1604882CA9</t>
+  </si>
+  <si>
+    <t>₹ 9.84</t>
+  </si>
+  <si>
+    <t>Vanavarayan K-ULK-BU19304D0F86</t>
+  </si>
+  <si>
+    <t>Vanavarayan K-ULK-BU198A6F53A7</t>
+  </si>
+  <si>
+    <t>Pratik Ramesh-ULK-BU1DE19239AF</t>
+  </si>
+  <si>
+    <t>Arun Acharya-ULK-BU222E4F60F8</t>
+  </si>
+  <si>
+    <t>DEEPAK SOLANKI-ULK-BU2708CE001C</t>
+  </si>
+  <si>
+    <t>Ashok Manda-ULK-BU29B5BDADF0</t>
+  </si>
+  <si>
+    <t>Anirudha Anand Jagdale-ULK-BU2A755DF811</t>
+  </si>
+  <si>
+    <t>Arun Acharya-ULK-BU2C878686C2</t>
+  </si>
+  <si>
+    <t>Kondreddy Uday kiran Reddy-ULK-BU2CDD5D0605</t>
+  </si>
+  <si>
+    <t>Shrigandh Dhanapal-ULK-BU32B43DF669</t>
+  </si>
+  <si>
+    <t>Nanjegowda Santhosh-ULK-BU38B7C7091B</t>
+  </si>
+  <si>
+    <t>Praveen Kumar-ULK-BU38CECB0BF1</t>
+  </si>
+  <si>
+    <t>Vanavarayan K-ULK-BU3C2FACAE06</t>
+  </si>
+  <si>
+    <t>ANINDYA KAR-ULK-BU4319A1A91B</t>
+  </si>
+  <si>
+    <t>JAIMISH MIYANI -ULK-BU43DF6694C8</t>
+  </si>
+  <si>
+    <t>Vanavarayan K-ULK-BU4DCB2A755D</t>
+  </si>
+  <si>
+    <t>Dal Chand-ULK-BU4FBFA668C9</t>
+  </si>
+  <si>
+    <t>Vanavarayan K-ULK-BU5133B23C49</t>
+  </si>
+  <si>
+    <t>Pratik Ramesh-ULK-BU555D717344</t>
+  </si>
+  <si>
+    <t>Arun Acharya-ULK-BU563DEEFFB4</t>
+  </si>
+  <si>
+    <t>Durairaj Boomanan-ULK-BU5BEFD65DB2</t>
+  </si>
+  <si>
+    <t>Vanavarayan K-ULK-BU5C3F051FE2</t>
+  </si>
+  <si>
+    <t>Nithin Vidya-ULK-BU5D47EA6340</t>
+  </si>
+  <si>
+    <t>Vanavarayan K-ULK-BU5F9D0CFD02</t>
+  </si>
+  <si>
+    <t>Parmod Kumar-ULK-BU618CAF6F70</t>
+  </si>
+  <si>
+    <t>Vanavarayan K-ULK-BU698D2939BC</t>
+  </si>
+  <si>
+    <t>Vanavarayan K-ULK-BU6A4306054B</t>
+  </si>
+  <si>
+    <t>Vikas Lalji-ULK-BU6F8E8CE12D</t>
+  </si>
+  <si>
+    <t>Abhishek Ginodia-ULK-BU71B23E05A5</t>
+  </si>
+  <si>
+    <t>Aman Goyal-ULK-BU73C45D5FA9</t>
+  </si>
+  <si>
+    <t>Aman Goyal-ULK-BU74BD37D03C</t>
+  </si>
+  <si>
+    <t>Vanavarayan K-ULK-BU7732B43DF6</t>
+  </si>
+  <si>
+    <t>Pratik Ramesh-ULK-BU78F8F2E431</t>
+  </si>
+  <si>
+    <t>Ahmad Khan-ULK-BU83D5F59059</t>
+  </si>
+  <si>
+    <t>Deveshdevidas Ghodeker-ULK-BU8615FEA3C3</t>
+  </si>
+  <si>
+    <t>Arun Acharya-ULK-BU878686C21F</t>
+  </si>
+  <si>
+    <t>Vanavarayan K-ULK-BU8BF1BF4E0C</t>
+  </si>
+  <si>
+    <t>Kevin Pauly-ULK-BU90697732B4</t>
+  </si>
+  <si>
+    <t>Vanavarayan K-ULK-BU929CE2747C</t>
+  </si>
+  <si>
+    <t>Shrigandh Dhanapal-ULK-BU94070AB6D0</t>
+  </si>
+  <si>
+    <t>Kevin Pauly-ULK-BU97732B43DF</t>
+  </si>
+  <si>
+    <t>Ahmad Khan-ULK-BUA45FB1EFAB</t>
+  </si>
+  <si>
+    <t>Ashok Manda-ULK-BUA8615FEA3C</t>
+  </si>
+  <si>
+    <t>Vanavarayan K-ULK-BUA8ACA1D9D4</t>
+  </si>
+  <si>
+    <t>VANAVARAYAN K-ULK-BUA8C334CE94</t>
+  </si>
+  <si>
+    <t>VANAVARAYAN KULK-BUA98ADB0579</t>
+  </si>
+  <si>
+    <t>Ahmad Khan-ULK-BUAB6BF4DCB2</t>
+  </si>
+  <si>
+    <t>Vikas Lalji Patariya-ULK-BUAC1E907B8D</t>
+  </si>
+  <si>
+    <t>Anirudha Anand Jagdale-ULK-BUB2A755DF81</t>
+  </si>
+  <si>
+    <t>Arun Acharya-ULK-BUB3F84DC4FB</t>
+  </si>
+  <si>
+    <t>Neelam Shukla-ULK-BUB4AD79B516</t>
+  </si>
+  <si>
+    <t>Vanavarayan K-ULK-BUBCCDCECA78</t>
+  </si>
+  <si>
+    <t>Arun Acharya-ULK-BUC212EAFC6B</t>
+  </si>
+  <si>
+    <t>Antim Rathaur-ULK-BUC45BEFD65D</t>
+  </si>
+  <si>
+    <t>Devesh Devidas-ULK-BUC5B636F16A</t>
+  </si>
+  <si>
+    <t>Nithin Vidya-ULK-BUC5D47EA634</t>
+  </si>
+  <si>
+    <t>Anirudha Anand Jagdale-ULK-BUCB2A755DF8</t>
+  </si>
+  <si>
+    <t>Vanavarayan K-ULK-BUCD6CA37B67</t>
+  </si>
+  <si>
+    <t>Kandula Srinivasarao-ULK-BUD5970F1819</t>
+  </si>
+  <si>
+    <t>Sreenivasa Sarma Bh-ULK-BUD6A3523F29</t>
+  </si>
+  <si>
+    <t>Arunkumar B-ULK-BUDADF02B8DF</t>
+  </si>
+  <si>
+    <t>Pavan Gupta-ULK-BUE619BE5931</t>
+  </si>
+  <si>
+    <t>Arun Acharya-ULK-BUEB9C0F1522</t>
+  </si>
+  <si>
+    <t>Dipayan Saha-ULK-BUEE418B9387</t>
+  </si>
+  <si>
+    <t>Alok Ranjan-ULK-BUEFD65DB274</t>
+  </si>
+  <si>
+    <t>Vanavarayan K-ULK-BUF1604882CA</t>
+  </si>
+  <si>
+    <t>Anirudha Anand Jagdale-ULK-BUF81112735D</t>
+  </si>
+  <si>
+    <t>Kesapally Srujan-ULK-BUFADD3CF963</t>
+  </si>
+  <si>
+    <t>Vikas Lalji-ULK-BUFDCD4ECEC2</t>
+  </si>
+  <si>
+    <t>Aashish Prakash-ULK-BUFEA3C3138B</t>
+  </si>
+  <si>
+    <t>test escrow 0021 1111</t>
+  </si>
+  <si>
+    <t>Nithin Vidya-ULK-BU04A4FD5390</t>
+  </si>
+  <si>
+    <t>Vikas Lalji Patariya-ULK-BU07B8DB4AD7</t>
+  </si>
+  <si>
+    <t>Arun Acharya-ULK-BU0806C33BD2</t>
+  </si>
+  <si>
+    <t>Anirudha Anand Jagdale-ULK-BU1112735DBE</t>
+  </si>
+  <si>
+    <t>Kamlesh Kanubhai Dhobi-ULK-BU1122F968DA</t>
+  </si>
+  <si>
+    <t>Praveen Kumar-ULK-BU1696774BD3</t>
+  </si>
+  <si>
+    <t>Akshay Sanjay-ULK-BU182812380F</t>
+  </si>
+  <si>
+    <t>Vanavarayan K-ULK-BU1D6AFDECE2</t>
+  </si>
+  <si>
+    <t>Manish Yadav-ULK-BU2A3C2FACAE</t>
+  </si>
+  <si>
+    <t>Aman Goyal-ULK-BU2CA95C5751</t>
+  </si>
+  <si>
+    <t>Vanavarayan K-ULK-BU2F2AA73C45</t>
+  </si>
+  <si>
+    <t>₹ 9.9</t>
+  </si>
+  <si>
+    <t>Mohan Reddy-ULK-BU2FACAE06F1</t>
+  </si>
+  <si>
+    <t>VANAVARAYAN K-ULK-BU34CE945AA6</t>
+  </si>
+  <si>
+    <t>MADHAV MAHESHWARI-ULK-BU35DBE3AEB4</t>
+  </si>
+  <si>
+    <t>Vikas Lalji Patariya-ULK-BU3C49CAC1E9</t>
+  </si>
+  <si>
+    <t>Dilip Kumar-ULK-BU401D106A05</t>
+  </si>
+  <si>
+    <t>Vanavarayan K-ULK-BU4310CC445D</t>
+  </si>
+  <si>
+    <t>Vikas Lalji-ULK-BU436F8E8CE1</t>
+  </si>
+  <si>
+    <t>Vanavarayan K-ULK-BU47691E1D7A</t>
+  </si>
+  <si>
+    <t>Vanavarayan K-ULK-BU4AA47B9F1D</t>
+  </si>
+  <si>
+    <t>₹ 13.11</t>
+  </si>
+  <si>
+    <t>VANAVARAYAN K-ULK-BU4CE945AA6D</t>
+  </si>
+  <si>
+    <t>₹ 1.08</t>
+  </si>
+  <si>
+    <t>Arun Acharya-ULK-BU4E7D5133B2</t>
+  </si>
+  <si>
+    <t>Shivakumar .-ULK-BU52EF2F2AA7</t>
+  </si>
+  <si>
+    <t>Nanjegowda Santhosh-ULK-BU54F003CBA9</t>
+  </si>
+  <si>
+    <t>Irfan Malik-ULK-BU57E66676AB</t>
+  </si>
+  <si>
+    <t>Yoseph Kale-ULK-BU592BA9602E</t>
+  </si>
+  <si>
+    <t>Rakesh Krishna Nayak-ULK-BU5D5319304D</t>
+  </si>
+  <si>
+    <t>Appala Naidu Ganivada-ULK-BU6050E1854D</t>
+  </si>
+  <si>
+    <t>Tanaji Uttam Somwanshi-ULK-BU62FFD995B6</t>
+  </si>
+  <si>
+    <t>Nithin Vidya-ULK-BU63404A4FD5</t>
+  </si>
+  <si>
+    <t>VANAVARAYAN KULK-BU6A98ADB057</t>
+  </si>
+  <si>
+    <t>Ahmad Khan-ULK-BU6BF4DCB2A7</t>
+  </si>
+  <si>
+    <t>Venkata Sai-ULK-BU6FAC5D47EA</t>
+  </si>
+  <si>
+    <t>Gourav Arora-ULK-BU730A382B1A</t>
+  </si>
+  <si>
+    <t>Nanjegowda Santhosh-ULK-BU7AD842F9C3</t>
+  </si>
+  <si>
+    <t>Venkata Ramana Pyla-ULK-BU7C90D4E693</t>
+  </si>
+  <si>
+    <t>Siddharth Jain-ULK-BU82EC7A7754</t>
+  </si>
+  <si>
+    <t>Yoseph Kale-ULK-BU85592BA960</t>
+  </si>
+  <si>
+    <t>Nanjegowda Santhosh-ULK-BU8B3F84DC4F</t>
+  </si>
+  <si>
+    <t>Vanavarayan K-ULK-BU8EDFBCB53E</t>
+  </si>
+  <si>
+    <t>Amol Ashok Jagtap -ULK-BU8F2E4319A1</t>
+  </si>
+  <si>
+    <t>Pratik Ramesh-ULK-BU91CE89E8FE</t>
+  </si>
+  <si>
+    <t>Vanavarayan K-ULK-BU93F05553A8</t>
+  </si>
+  <si>
+    <t>Sony Parveen-ULK-BU96095FF353</t>
+  </si>
+  <si>
+    <t>Sudhir Kumar-ULK-BU97692B475C</t>
+  </si>
+  <si>
+    <t>VANAVARAYAN KULK-BUA2A37F516F</t>
+  </si>
+  <si>
+    <t>Vanavarayan K-ULK-BUA5D085F946</t>
+  </si>
+  <si>
+    <t>Mohammad Maveen-ULK-BUA965C483E7</t>
+  </si>
+  <si>
+    <t>Vanavarayan K-ULK-BUAA73C45D5F</t>
+  </si>
+  <si>
+    <t>Vanavarayan K-ULK-BUADDCD5128D</t>
+  </si>
+  <si>
+    <t>Venkata Ramana Pyla-ULK-BUAFDF1FEAC1</t>
+  </si>
+  <si>
+    <t>Ahmad Khan-ULK-BUB1EFAB6BF4</t>
+  </si>
+  <si>
+    <t>Robin Ransom-ULK-BUB39A15EECD</t>
+  </si>
+  <si>
+    <t>Prakhar Gupta-ULK-BUB4C5B170CE</t>
+  </si>
+  <si>
+    <t>Ahmad Khan-ULK-BUB6BF4DCB2A</t>
+  </si>
+  <si>
+    <t>Subodh Vassudev Karmali -ULK-BUB6DE0A68E6</t>
+  </si>
+  <si>
+    <t>Ketan Jagdish Pandit-ULK-BUBE3AEB4BF9</t>
+  </si>
+  <si>
+    <t>Vanavarayan K-ULK-BUBF9548301B</t>
+  </si>
+  <si>
+    <t>Arun Acharya-ULK-BUC0F15222E4</t>
+  </si>
+  <si>
+    <t>Vanavarayan K-ULK-BUC198A6F53A</t>
+  </si>
+  <si>
+    <t>Vikas Lalji Patariya-ULK-BUC1E907B8DB</t>
+  </si>
+  <si>
+    <t>Pooja Agarwal-ULK-BUC731E0545C</t>
+  </si>
+  <si>
+    <t>Bhavesh J Patel-ULK-BUD13FE5A669</t>
+  </si>
+  <si>
+    <t>Nithin Vidya-ULK-BUD47EA63404</t>
+  </si>
+  <si>
+    <t>Aman Goyal-ULK-BUD5FA9B9962</t>
+  </si>
+  <si>
+    <t>Nanjegowda Santhosh-ULK-BUD730638B7C</t>
+  </si>
+  <si>
+    <t>Prashant Yadav-ULK-BUD9F40ACABD</t>
+  </si>
+  <si>
+    <t>Tarik Rafik-ULK-BUDE5BD5D420</t>
+  </si>
+  <si>
+    <t>Arun Acharya-ULK-BUE59B2968B3</t>
+  </si>
+  <si>
+    <t>VANAVARAYAN K-ULK-BUE5A7C5F5EF</t>
+  </si>
+  <si>
+    <t>Tejas Venkataramani-ULK-BUE9FC30367B</t>
+  </si>
+  <si>
+    <t>Vanavarayan K-ULK-BUEB4BF95483</t>
+  </si>
+  <si>
+    <t>Ahmad Khan-ULK-BUFAB6BF4DCB</t>
+  </si>
+  <si>
+    <t>Vanavarayan K-ULK-BUFB5039D3A9</t>
+  </si>
+  <si>
+    <t>Sony Parveen-ULK-BUFD85974CEC</t>
+  </si>
+  <si>
+    <t>Appala Naidu Ganivada-ULK-BUFE3DCB7247</t>
+  </si>
+  <si>
+    <t>Unlistedkart Private Limited</t>
+  </si>
+  <si>
+    <t>Gourav Arora-ULK-BU04730A382B</t>
+  </si>
+  <si>
+    <t>Appala Naidu Ganivada-ULK-BU050E1854D8</t>
+  </si>
+  <si>
+    <t>Irfan Malik-ULK-BU057E66676A</t>
+  </si>
+  <si>
+    <t>VANAVARAYAN K-ULK-BU05DA8C334C</t>
+  </si>
+  <si>
+    <t>Ramji Dass-ULK-BU078E17B30F</t>
+  </si>
+  <si>
+    <t>Venkata Ramana Pyla-ULK-BU07C90D4E69</t>
+  </si>
+  <si>
+    <t>Vanavarayan K-ULK-BU09BE754C8E</t>
+  </si>
+  <si>
+    <t>Arun Acharya-ULK-BU0A0E59B296</t>
+  </si>
+  <si>
+    <t>Prakhar Gupta-ULK-BU0B4C5B170C</t>
+  </si>
+  <si>
+    <t>Vanavarayan K-ULK-BU0ED1E5C86A</t>
+  </si>
+  <si>
+    <t>Mayur Nasriwala-ULK-BU0FAFD704F6</t>
+  </si>
+  <si>
+    <t>Vanavarayan K-ULK-BU13AEDB01DA</t>
+  </si>
+  <si>
+    <t>yog raj-ULK-BU1656EB0D3C</t>
+  </si>
+  <si>
+    <t>Gantasala Venkata Narayana Murthy-ULK-BU170CEADD05</t>
+  </si>
+  <si>
+    <t>Vanavarayan K-ULK-BU1AEE8249AD</t>
+  </si>
+  <si>
+    <t>Shobit Singh-ULK-BU1C418FFCC9</t>
+  </si>
+  <si>
+    <t>Ahmad Khan-ULK-BU1E7A438E11</t>
+  </si>
+  <si>
+    <t>Arun Acharya-ULK-BU2983D5F590</t>
+  </si>
+  <si>
+    <t>Vanavarayan K-ULK-BU304D0F86FA</t>
+  </si>
+  <si>
+    <t>ANINDYA KAR-ULK-BU319A1A91B2</t>
+  </si>
+  <si>
+    <t>Bidaraguppe Shashidhar Gokul-ULK-BU3563DEEFFB</t>
+  </si>
+  <si>
+    <t>Veer Pratap-ULK-BU35D5D9EB8A</t>
+  </si>
+  <si>
+    <t>Vikas Lalji Patariya-ULK-BU3B23C49CAC</t>
+  </si>
+  <si>
+    <t>Nithin Vidya-ULK-BU404A4FD539</t>
+  </si>
+  <si>
+    <t>Pratik Ramesh-ULK-BU445D0612FF</t>
+  </si>
+  <si>
+    <t>Kartikey Gupta-ULK-BU447560052B</t>
+  </si>
+  <si>
+    <t>Ahmad Khan-ULK-BU45FB1EFAB6</t>
+  </si>
+  <si>
+    <t>Gourav Arora-ULK-BU4730A382B1</t>
+  </si>
+  <si>
+    <t>Ravish Ramachandra-ULK-BU482CDD5D06</t>
+  </si>
+  <si>
+    <t>Nithin Vidya-ULK-BU4A4FD53906</t>
+  </si>
+  <si>
+    <t>BalajiULK-BU4BDA7D51FE</t>
+  </si>
+  <si>
+    <t>Vanavarayan K-ULK-BU4D0F86FAC5</t>
+  </si>
+  <si>
+    <t>Ayush Pandey-ULK-BU4F6446A1B8</t>
+  </si>
+  <si>
+    <t>Vanavarayan K-ULK-BU534D045EFE</t>
+  </si>
+  <si>
+    <t>Arun Acharya-ULK-BU569EB9C0F1</t>
+  </si>
+  <si>
+    <t>Venkata Sai Teja Panem-ULK-BU56ED556E8B</t>
+  </si>
+  <si>
+    <t>Anirudha Anand Jagdale-ULK-BU5DF8111273</t>
+  </si>
+  <si>
+    <t>Vanavarayan K-ULK-BU636F16ACF3</t>
+  </si>
+  <si>
+    <t>Venkata Sai Teja Panem-ULK-BU6ED556E8BF</t>
+  </si>
+  <si>
+    <t>Bidaraguppe Shashidhar Gokul-ULK-BU6F1243563D</t>
+  </si>
+  <si>
+    <t>Venkata Ramana Pyla-ULK-BU6F53A767C1</t>
+  </si>
+  <si>
+    <t>Lalit Kumar-ULK-BU7476BE9AA2</t>
+  </si>
+  <si>
+    <t>Vikas Lalji Patariya-ULK-BU7B8DB4AD79</t>
+  </si>
+  <si>
+    <t>Nithin Vidya-ULK-BU7EA63404A4</t>
+  </si>
+  <si>
+    <t>Anirudha Anand Jagdale-ULK-BU81112735DB</t>
+  </si>
+  <si>
+    <t>MADHAV MAHESHWARI-ULK-BU82CDD5D060</t>
+  </si>
+  <si>
+    <t>Vanavarayan K-ULK-BU882CA95C57</t>
+  </si>
+  <si>
+    <t>Venkata Ramana Pyla-ULK-BU89AFDF1FEA</t>
+  </si>
+  <si>
+    <t>Vanavarayan K-ULK-BU8BC5B87539</t>
+  </si>
+  <si>
+    <t>Dal Chand-ULK-BU8E184181C8</t>
+  </si>
+  <si>
+    <t>VANAVARAYAN KULK-BU9140FD8515</t>
+  </si>
+  <si>
+    <t>Arun Acharya-ULK-BU94F1E18C47</t>
+  </si>
+  <si>
+    <t>Bidaraguppe Shashidhar Gokul-ULK-BU95D5319304</t>
+  </si>
+  <si>
+    <t>Ashok Manda-ULK-BU9B5BDADF02</t>
+  </si>
+  <si>
+    <t>Vanavarayan K-ULK-BU9C7C8E2EFD</t>
+  </si>
+  <si>
+    <t>Bavariya Karan Pravinbhai-ULK-BU9D26F845BF</t>
+  </si>
+  <si>
+    <t>Vanavarayan K-ULK-BUA2AE94F1E1</t>
+  </si>
+  <si>
+    <t>Vanavarayan K-ULK-BUA5211F5C69</t>
+  </si>
+  <si>
+    <t>Sunil Kumar M S-ULK-BUA94CDE0D43</t>
+  </si>
+  <si>
+    <t>Vanavarayan K-ULK-BUA9A45FB1EF</t>
+  </si>
+  <si>
+    <t>Nithin Vidya-ULK-BUAC5D47EA63</t>
+  </si>
+  <si>
+    <t>Arun Acharya-ULK-BUAE94F1E18C</t>
+  </si>
+  <si>
+    <t>Arun Acharya-ULK-BUAEE8249ADE</t>
+  </si>
+  <si>
+    <t>Mayur Nasriwala-ULK-BUC0F821956E</t>
+  </si>
+  <si>
+    <t>Aman Goyal-ULK-BUC45D5FA9B9</t>
+  </si>
+  <si>
+    <t>Vanavarayan K-ULK-BUC96095FF35</t>
+  </si>
+  <si>
+    <t>Bhagawan Sahay Saini-ULK-BUCA1D9D4992</t>
+  </si>
+  <si>
+    <t>Vikas Lalji Patariya-ULK-BUCAC1E907B8</t>
+  </si>
+  <si>
+    <t>Dal Chand-ULK-BUCF8E9C8217</t>
+  </si>
+  <si>
+    <t>Pavan Gupta-ULK-BUCFCE619BE5</t>
+  </si>
+  <si>
+    <t>Appala Naidu Ganivada-ULK-BUD06050E185</t>
+  </si>
+  <si>
+    <t>Vanavarayan K-ULK-BUD0F86FAC5D</t>
+  </si>
+  <si>
+    <t>Ramji Dass-ULK-BUD5128D72E4</t>
+  </si>
+  <si>
+    <t>Parmod Kumar-ULK-BUD79B516F12</t>
+  </si>
+  <si>
+    <t>Vanavarayan K-ULK-BUD9C7F798DD</t>
+  </si>
+  <si>
+    <t>Kamlesh Kanubhai Dhobi-ULK-BUDA5DA08704</t>
+  </si>
+  <si>
+    <t>Neelam Shukla-ULK-BUDB4AD79B51</t>
+  </si>
+  <si>
+    <t>Devesh Devidas-ULK-BUDC5B636F16</t>
+  </si>
+  <si>
+    <t>Appala Naidu Ganivada-ULK-BUE06F160488</t>
+  </si>
+  <si>
+    <t>Sabita Choudhury-ULK-BUEE52A35409</t>
+  </si>
+  <si>
+    <t>Ahmad Khan-ULK-BUEFAB6BF4DC</t>
+  </si>
+  <si>
+    <t>Nanjegowda Santhosh-ULK-BUF0B95FC047</t>
+  </si>
+  <si>
+    <t>Kamlesh Kanubhai Dhobi-ULK-BUF968DA5DA0</t>
+  </si>
+  <si>
+    <t>Mayur Nasriwala-ULK-BUFAFD704F6A</t>
+  </si>
+  <si>
+    <t>Nithin Vidya-ULK-BUFD53906977</t>
+  </si>
+  <si>
+    <t>Antim Rathaur-ULK-BUFD65DB2748</t>
+  </si>
+  <si>
+    <t>test111awrun</t>
+  </si>
+  <si>
+    <t>test accoout 018</t>
+  </si>
+  <si>
+    <t>Vanavarayan K-ULK-BU0255210595</t>
+  </si>
+  <si>
+    <t>Arun Acharya-ULK-BU04882CA95C</t>
+  </si>
+  <si>
+    <t>Arun Acharya-ULK-BU05A2AE94F1</t>
+  </si>
+  <si>
+    <t>Nanjegowda Santhosh-ULK-BU0638B7C709</t>
+  </si>
+  <si>
+    <t>Abhinav Jain-ULK-BU0817482A73</t>
+  </si>
+  <si>
+    <t>Ashutosh Kumar-ULK-BU08A7810A8D</t>
+  </si>
+  <si>
+    <t>Vanavarayan K-ULK-BU0A6E8E1841</t>
+  </si>
+  <si>
+    <t>Anirudha Anand Jagdale-ULK-BU112735DBE3</t>
+  </si>
+  <si>
+    <t>Bhavin Sharma-ULK-BU127FAFE74E</t>
+  </si>
+  <si>
+    <t>Smit Hitendrakumar-ULK-BU1711D975EF</t>
+  </si>
+  <si>
+    <t>Vanavarayan K-ULK-BU19E3318926</t>
+  </si>
+  <si>
+    <t>DEEPAK SOLANKI-ULK-BU1C82A3C2FA</t>
+  </si>
+  <si>
+    <t>Vikas Lalji Patariya-ULK-BU1E907B8DB4</t>
+  </si>
+  <si>
+    <t>Vikas Lalji Patariya-ULK-BU23C49CAC1E</t>
+  </si>
+  <si>
+    <t>Ramji Dass-ULK-BU23E3C38BC5</t>
+  </si>
+  <si>
+    <t>Vanavarayan K-ULK-BU2AA73C45D5</t>
+  </si>
+  <si>
+    <t>Vanavarayan K-ULK-BU2B43DF6694</t>
+  </si>
+  <si>
+    <t>₹ 10.5</t>
+  </si>
+  <si>
+    <t>Vanavarayan K-ULK-BU2EF2F2AA73</t>
+  </si>
+  <si>
+    <t>Kamlesh Kanubhai Dhobi-ULK-BU2F968DA5DA</t>
+  </si>
+  <si>
+    <t>Vanavarayan K-ULK-BU319304D0F8</t>
+  </si>
+  <si>
+    <t>Vikas Lalji-ULK-BU36F8E8CE12</t>
+  </si>
+  <si>
+    <t>Deveshdevidas Ghodeker-ULK-BU3C3138B26F</t>
+  </si>
+  <si>
+    <t>₹ 20,362.1</t>
+  </si>
+  <si>
+    <t>Aman Goyal-ULK-BU3C45D5FA9B</t>
+  </si>
+  <si>
+    <t>N RAJARAJAN-ULK-BU451C147E52</t>
+  </si>
+  <si>
+    <t>Peeyush Dixit-ULK-BU47A5F10501</t>
+  </si>
+  <si>
+    <t>Arun Acharya-ULK-BU47B9F1D741</t>
+  </si>
+  <si>
+    <t>Aman Goyal-ULK-BU4BD37D03CA</t>
+  </si>
+  <si>
+    <t>Smit Hitendrakumar-ULK-BU4C6ED8C07A</t>
+  </si>
+  <si>
+    <t>Appala Naidu Ganivada-ULK-BU4F135A5504</t>
+  </si>
+  <si>
+    <t>Mohd Danish-ULK-BU50CFA69D78</t>
+  </si>
+  <si>
+    <t>Pratik Ramesh-ULK-BU5D0612FF4B</t>
+  </si>
+  <si>
+    <t>VANAVARAYAN K-ULK-BU5DA8C334CE</t>
+  </si>
+  <si>
+    <t>Lalit Kumar-ULK-BU6446A1B875</t>
+  </si>
+  <si>
+    <t>Antim Rathaur-ULK-BU65DB27482C</t>
+  </si>
+  <si>
+    <t>Venkata Ramana Pyla-ULK-BU660F8CC54E</t>
+  </si>
+  <si>
+    <t>Nanjegowda Santhosh-ULK-BU68B3F84DC4</t>
+  </si>
+  <si>
+    <t>Subodh Vassudev Karmali -ULK-BU6DE0A68E6A</t>
+  </si>
+  <si>
+    <t>Arun AcharyaULK-BU74B0D560E0</t>
+  </si>
+  <si>
+    <t>Anirudha Anand Jagdale-ULK-BU755DF81112</t>
+  </si>
+  <si>
+    <t>Vanavarayan K-ULK-BU7D8AC5EB94</t>
+  </si>
+  <si>
+    <t>Ahmad Khan-ULK-BU83191E7A43</t>
+  </si>
+  <si>
+    <t>Venkata Sai-ULK-BU86FAC5D47E</t>
+  </si>
+  <si>
+    <t>VANAVARAYAN K-ULK-BU8C334CE945</t>
+  </si>
+  <si>
+    <t>Vikas Lalji Patariya-ULK-BU907B8DB4AD</t>
+  </si>
+  <si>
+    <t>Battu Sathyanarayana -ULK-BU9BEC69D2BB</t>
+  </si>
+  <si>
+    <t>ANINDYA KAR-ULK-BUA1A91B247B</t>
+  </si>
+  <si>
+    <t>Shubham Satish Kandi-ULK-BUA4F628DF55</t>
+  </si>
+  <si>
+    <t>Mohd Danish-ULK-BUA50CFA69D7</t>
+  </si>
+  <si>
+    <t>Vanavarayan K-ULK-BUA6E8E18418</t>
+  </si>
+  <si>
+    <t>Venkata Ramana Pyla-ULK-BUA6F53A767C</t>
+  </si>
+  <si>
+    <t>Balaji-ULK-BUA7C5F5EF9F</t>
+  </si>
+  <si>
+    <t>Appala Naidu Ganivada-ULK-BUAC5EB94361</t>
+  </si>
+  <si>
+    <t>Appala Naidu Ganivada-ULK-BUACAE06F160</t>
+  </si>
+  <si>
+    <t>Vikas Lalji Patariya-ULK-BUB23C49CAC1</t>
+  </si>
+  <si>
+    <t>Vikas Lalji Patariya-ULK-BUC49CAC1E90</t>
+  </si>
+  <si>
+    <t>Vanavarayan K-ULK-BUC6B0A0E59B</t>
+  </si>
+  <si>
+    <t>Vanavarayan K-ULK-BUC82A3C2FAC</t>
+  </si>
+  <si>
+    <t>Veer Pratap-ULK-BUCCF4202410</t>
+  </si>
+  <si>
+    <t>D C BABY-ULK-BUCD734CE353</t>
+  </si>
+  <si>
+    <t>Vikas Lalji-ULK-BUCEC2983D5F</t>
+  </si>
+  <si>
+    <t>Hari Shankar-ULK-BUD0D65F27D7</t>
+  </si>
+  <si>
+    <t>Vanavarayan K-ULK-BUD4310CC445</t>
+  </si>
+  <si>
+    <t>Vikas Lalji-ULK-BUD4ECEC2983</t>
+  </si>
+  <si>
+    <t>Rakesh Krishna Nayak-ULK-BUD5319304D0</t>
+  </si>
+  <si>
+    <t>JAIMISH MIYANI -ULK-BUDF6694C80A</t>
+  </si>
+  <si>
+    <t>Ketan Jagdish Pandit-ULK-BUE3AEB4BF95</t>
+  </si>
+  <si>
+    <t>B R Pavan Kumar-ULK-BUE3DCB72478</t>
+  </si>
+  <si>
+    <t>Nanjegowda Santhosh-ULK-BUED730638B7</t>
+  </si>
+  <si>
+    <t>Aman Goyal-ULK-BUF15F2F9451</t>
+  </si>
+  <si>
+    <t>Tapas Kumar Sahoo-ULK-BUF32AF21BCD</t>
+  </si>
+  <si>
+    <t>Balaji Balaji-ULK-BUFAA5F433C1</t>
+  </si>
+  <si>
+    <t>Kambham Niswanth-ULK-BUFAFE74E7D5</t>
+  </si>
+  <si>
+    <t>Vanavarayan K-ULK-BUFC6B0A0E59</t>
+  </si>
+  <si>
+    <t>Vanavarayan K-ULK-BUFDD08AF8D2</t>
+  </si>
+  <si>
+    <t>Arun Acharya-ULK-BUFFDC297692</t>
+  </si>
+  <si>
+    <t>test escrow account</t>
+  </si>
+  <si>
+    <t>Prakhar Gupta-ULK-BU00B4C5B170</t>
+  </si>
+  <si>
+    <t>Sony Parveen-ULK-BU095FF353F0</t>
+  </si>
+  <si>
+    <t>Vanavarayan K-ULK-BU0A9A45FB1E</t>
+  </si>
+  <si>
+    <t>Hari Shankar-ULK-BU0E96322650</t>
+  </si>
+  <si>
+    <t>Mayur Nasriwala-ULK-BU0F821956ED</t>
+  </si>
+  <si>
+    <t>Arun AcharyaULK-BU138EEB7355</t>
+  </si>
+  <si>
+    <t>Appala Naidu Ganivada-ULK-BU209FC5FE3D</t>
+  </si>
+  <si>
+    <t>Nanjegowda Santhosh-ULK-BU254F003CBA</t>
+  </si>
+  <si>
+    <t>Aman Goyal-ULK-BU2552105955</t>
+  </si>
+  <si>
+    <t>Vivekkumar Pravinbhai-ULK-BU2784F01B05</t>
+  </si>
+  <si>
+    <t>Bhavin Sharma-ULK-BU27FAFE74E7</t>
+  </si>
+  <si>
+    <t>Vanavarayan K-ULK-BU2AE94F1E18</t>
+  </si>
+  <si>
+    <t>Devesh Devidas-ULK-BU2BEE41DDC5</t>
+  </si>
+  <si>
+    <t>Manish -ULK-BU3097040610</t>
+  </si>
+  <si>
+    <t>Bhagawan Sahay Saini-ULK-BU36FFA64C4B</t>
+  </si>
+  <si>
+    <t>Tejas Venkataramani-ULK-BU380FED7299</t>
+  </si>
+  <si>
+    <t>Vanavarayan K-ULK-BU3D62140D70</t>
+  </si>
+  <si>
+    <t>JAIMISH MIYANI -ULK-BU3DF6694C80</t>
+  </si>
+  <si>
+    <t>Pratik Ramesh-ULK-BU44F8A70E7F</t>
+  </si>
+  <si>
+    <t>Durairaj Boomanan-ULK-BU45BEFD65DB</t>
+  </si>
+  <si>
+    <t>Kesapally Srujan-ULK-BU45F35587DC</t>
+  </si>
+  <si>
+    <t>Vanavarayan K-ULK-BU4FB5039D3A</t>
+  </si>
+  <si>
+    <t>Aman Goyal-ULK-BU52105955A8</t>
+  </si>
+  <si>
+    <t>VANAVARAYAN K-ULK-BU5A7C5F5EF9</t>
+  </si>
+  <si>
+    <t>Vanavarayan K-ULK-BU5E4EE6D142</t>
+  </si>
+  <si>
+    <t>Nilesh Nimkar-ULK-BU6001CCDB3E</t>
+  </si>
+  <si>
+    <t>Ashok Manda-ULK-BU60BEDBBE54</t>
+  </si>
+  <si>
+    <t>Pratik Ramesh-ULK-BU612FF4BFE0</t>
+  </si>
+  <si>
+    <t>Nanjegowda Santhosh-ULK-BU638B7C7091</t>
+  </si>
+  <si>
+    <t>Saurabh Suman-ULK-BU676975133B</t>
+  </si>
+  <si>
+    <t>Arun Acharya-ULK-BU69EB9C0F15</t>
+  </si>
+  <si>
+    <t>Burra Srikanth-ULK-BU6BE9AA2362</t>
+  </si>
+  <si>
+    <t>Vanavarayan K-ULK-BU708CE001C6</t>
+  </si>
+  <si>
+    <t>Vanavarayan K-ULK-BU711D975EF5</t>
+  </si>
+  <si>
+    <t>MADHAV MAHESHWARI-ULK-BU735DBE3AEB</t>
+  </si>
+  <si>
+    <t>Appala Naidu Ganivada-ULK-BU74B9EFE52E</t>
+  </si>
+  <si>
+    <t>Nanjegowda Santhosh-ULK-BU77AD842F9C</t>
+  </si>
+  <si>
+    <t>Arun Acharya-ULK-BU7ACA4AA47B</t>
+  </si>
+  <si>
+    <t>Vanavarayan K-ULK-BU7D5133B23C</t>
+  </si>
+  <si>
+    <t>Arun Acharya-ULK-BU806C33BD20</t>
+  </si>
+  <si>
+    <t>Vanavarayan K-ULK-BU80A9A45FB1</t>
+  </si>
+  <si>
+    <t>Vanavarayan K-ULK-BU81C82A3C2F</t>
+  </si>
+  <si>
+    <t>Baiju Viswambharan -ULK-BU83DD64AF3B</t>
+  </si>
+  <si>
+    <t>VANAVARAYAN K-ULK-BU8FAA5F433C</t>
+  </si>
+  <si>
+    <t>Hari Shankar-ULK-BU9632265005</t>
+  </si>
+  <si>
+    <t>Kamlesh Kanubhai Dhobi-ULK-BU968DA5DA08</t>
+  </si>
+  <si>
+    <t>Manish -ULK-BU970406108A</t>
+  </si>
+  <si>
+    <t>Venkata Ramana Pyla-ULK-BU9AFDF1FEAC</t>
+  </si>
+  <si>
+    <t>Parmod Kumar-ULK-BU9B516F1243</t>
+  </si>
+  <si>
+    <t>Vikas Lalji Patariya-ULK-BU9CAC1E907B</t>
+  </si>
+  <si>
+    <t>Pavan Gupta-ULK-BU9CFCE619BE</t>
+  </si>
+  <si>
+    <t>Vanavarayan K-ULK-BU9EA401D106</t>
+  </si>
+  <si>
+    <t>Arun Acharya-ULK-BUA0E59B2968</t>
+  </si>
+  <si>
+    <t>Raju Yadav-ULK-BUA5DA08704C</t>
+  </si>
+  <si>
+    <t>Anirudha Anand Jagdale-ULK-BUA755DF8111</t>
+  </si>
+  <si>
+    <t>Kambham Niswanth-ULK-BUAFE74E7D51</t>
+  </si>
+  <si>
+    <t>Hari Shankar-ULK-BUB50322B3AD</t>
+  </si>
+  <si>
+    <t>Vanavarayan K-ULK-BUB5BDADF02B</t>
+  </si>
+  <si>
+    <t>Nanjegowda Santhosh-ULK-BUB7C7091B19</t>
+  </si>
+  <si>
+    <t>Vikas Lalji Patariya-ULK-BUB8DB4AD79B</t>
+  </si>
+  <si>
+    <t>Shrigandh Dhanapal-ULK-BUBA94070AB6</t>
+  </si>
+  <si>
+    <t>Balaji Balaji-ULK-BUC334CE945A</t>
+  </si>
+  <si>
+    <t>Bhawar Singh-ULK-BUC5EB943610</t>
+  </si>
+  <si>
+    <t>Venkata Ramana Pyla-ULK-BUC90D4E6939</t>
+  </si>
+  <si>
+    <t>Vanavarayan K-ULK-BUCA4AA47B9F</t>
+  </si>
+  <si>
+    <t>Vanavarayan K-ULK-BUCAF611537F</t>
+  </si>
+  <si>
+    <t>Pavan Gupta-ULK-BUCE619BE593</t>
+  </si>
+  <si>
+    <t>Vanavarayan K-ULK-BUD5133B23C4</t>
+  </si>
+  <si>
+    <t>Kondreddy Uday kiran Reddy-ULK-BUD5D06050E1</t>
+  </si>
+  <si>
+    <t>Vanavarayan K-ULK-BUD77D1E9360</t>
+  </si>
+  <si>
+    <t>VANAVARAYAN KULK-BUDA7D51FE6C</t>
+  </si>
+  <si>
+    <t>Kartikey Gupta-ULK-BUE184181C82</t>
+  </si>
+  <si>
+    <t>Appala Naidu Ganivada-ULK-BUE30C1B12E0</t>
+  </si>
+  <si>
+    <t>Vanavarayan K-ULK-BUE49692C894</t>
+  </si>
+  <si>
+    <t>Abhishek Ginodia-ULK-BUE71B23E05A</t>
+  </si>
+  <si>
+    <t>Ahmad Khan-ULK-BUE83191E7A4</t>
+  </si>
+  <si>
+    <t>Vanavarayan K-ULK-BUE940E3FECA</t>
+  </si>
+  <si>
+    <t>Mohd Danish-ULK-BUEA50CFA69D</t>
+  </si>
+  <si>
+    <t>Nithin Vidya-ULK-BUEA63404A4F</t>
+  </si>
+  <si>
+    <t>Vanavarayan K-ULK-BUEAFC6B0A0E</t>
+  </si>
+  <si>
+    <t>Vikas Lalji-ULK-BUEC2983D5F5</t>
+  </si>
+  <si>
+    <t>Vikas Lalji-ULK-BUECEC2983D5</t>
+  </si>
+  <si>
+    <t>Vanavarayan K-ULK-BUEF2F2AA73C</t>
+  </si>
+  <si>
+    <t>Vanavarayan K-ULK-BUF2F2AA73C4</t>
+  </si>
+  <si>
+    <t>Vanavarayan K-ULK-BU04D0F86FAC</t>
+  </si>
+  <si>
+    <t>Appala Naidu Ganivada-ULK-BU06050E1854</t>
+  </si>
+  <si>
+    <t>Pratik Ramesh-ULK-BU0612FF4BFE</t>
+  </si>
+  <si>
+    <t>Kevin Pauly-ULK-BU0697732B43</t>
+  </si>
+  <si>
+    <t>Pratik Ramesh-ULK-BU0BF230C64C</t>
+  </si>
+  <si>
+    <t>Vanavarayan K-ULK-BU15FEA3C313</t>
+  </si>
+  <si>
+    <t>Appala Naidu Ganivada-ULK-BU1B12E01520</t>
+  </si>
+  <si>
+    <t>Abhishek Ginodia-ULK-BU1B23E05A55</t>
+  </si>
+  <si>
+    <t>Vanavarayan K-ULK-BU1FE7F89B8D</t>
+  </si>
+  <si>
+    <t>Arun Acharya-ULK-BU22E4F60F8B</t>
+  </si>
+  <si>
+    <t>Dal Chand-ULK-BU27EC4F2BB8</t>
+  </si>
+  <si>
+    <t>Nanjegowda Santhosh-ULK-BU30638B7C70</t>
+  </si>
+  <si>
+    <t>Deepak Porwal-ULK-BU30F82EC7A7</t>
+  </si>
+  <si>
+    <t>Nithin Vidya-ULK-BU3404A4FD53</t>
+  </si>
+  <si>
+    <t>Vanavarayan K-ULK-BU367B6E307A</t>
+  </si>
+  <si>
+    <t>Vanavarayan K-ULK-BU45771C418F</t>
+  </si>
+  <si>
+    <t>Aman Goyal-ULK-BU45D5FA9B99</t>
+  </si>
+  <si>
+    <t>Bhawar Singh-ULK-BU48301B3E9F</t>
+  </si>
+  <si>
+    <t>Bijoy Sharma-ULK-BU483F24CD73</t>
+  </si>
+  <si>
+    <t>Vanavarayan K-ULK-BU4B56332859</t>
+  </si>
+  <si>
+    <t>Vikas Lalji-ULK-BU4ECEC2983D</t>
+  </si>
+  <si>
+    <t>Nithin Vidya-ULK-BU4FD5390697</t>
+  </si>
+  <si>
+    <t>Venkata Ramana Pyla-ULK-BU53A767C1B6</t>
+  </si>
+  <si>
+    <t>Shankar Jawahirlal Vishwakarma-ULK-BU53D069E144</t>
+  </si>
+  <si>
+    <t>Vanavarayan K-ULK-BU548301B3E9</t>
+  </si>
+  <si>
+    <t>Arun Acharya-ULK-BU5A2AE94F1E</t>
+  </si>
+  <si>
+    <t>Baiju Viswambharan -ULK-BU5A81197FE4</t>
+  </si>
+  <si>
+    <t>Vanavarayan K-ULK-BU5B87539944</t>
+  </si>
+  <si>
+    <t>Aman chanodia-ULK-BU5D4DEAB6DE</t>
+  </si>
+  <si>
+    <t>Himanshu Mahendra-ULK-BU5DA08704CD</t>
+  </si>
+  <si>
+    <t>Nagesh Kumar Mekala-ULK-BU5DBE3AEB4B</t>
+  </si>
+  <si>
+    <t>Arun Acharya-ULK-BU665DD77D1E</t>
+  </si>
+  <si>
+    <t>Bijoy Sharma-ULK-BU6E8E184181</t>
+  </si>
+  <si>
+    <t>Vipin Vijay-ULK-BU712E6CE3AD</t>
+  </si>
+  <si>
+    <t>Mohan Reddy-ULK-BU71FF1416BB</t>
+  </si>
+  <si>
+    <t>Vanavarayan K-ULK-BU74F00A722B</t>
+  </si>
+  <si>
+    <t>Arun Acharya-ULK-BU78686C21F7</t>
+  </si>
+  <si>
+    <t>Arun Acharya-ULK-BU805A2AE94F</t>
+  </si>
+  <si>
+    <t>Vishal Suresh Yadav-ULK-BU84181C82A3</t>
+  </si>
+  <si>
+    <t>Abhishek -ULK-BU88F708ABEF</t>
+  </si>
+  <si>
+    <t>Praveen Kumar-ULK-BU89938CECB0</t>
+  </si>
+  <si>
+    <t>Nanjegowda Santhosh-ULK-BU8B7C7091B1</t>
+  </si>
+  <si>
+    <t>Kamlesh Kanubhai Dhobi-ULK-BU8DA5DA0870</t>
+  </si>
+  <si>
+    <t>Vikas Lalji Patariya-ULK-BU8DB4AD79B5</t>
+  </si>
+  <si>
+    <t>Sunil Kumar M S-ULK-BU94CDE0D431</t>
+  </si>
+  <si>
+    <t>Vanavarayan K-ULK-BU9548301B3E</t>
+  </si>
+  <si>
+    <t>BalajiULK-BU972D8A8828</t>
+  </si>
+  <si>
+    <t>Vanavarayan K-ULK-BUA3C2FACAE0</t>
+  </si>
+  <si>
+    <t>Nithin Vidya-ULK-BUA4FD539069</t>
+  </si>
+  <si>
+    <t>Vanavarayan K-ULK-BUA7F050F82C</t>
+  </si>
+  <si>
+    <t>Shrigandh Dhanapal-ULK-BUA94070AB6D</t>
+  </si>
+  <si>
+    <t>Suravarapu Venkateswara-ULK-BUA9B996290D</t>
+  </si>
+  <si>
+    <t>Vanavarayan K-ULK-BUAD9C7F798D</t>
+  </si>
+  <si>
+    <t>Vanavarayan K-ULK-BUAFC6B0A0E5</t>
+  </si>
+  <si>
+    <t>Vanavarayan K-ULK-BUB3E7254887</t>
+  </si>
+  <si>
+    <t>Parmod Kumar-ULK-BUB516F12435</t>
+  </si>
+  <si>
+    <t>Lalit Kumar-ULK-BUB60BEDBBE5</t>
+  </si>
+  <si>
+    <t>Arun Acharya-ULK-BUB9C0F15222</t>
+  </si>
+  <si>
+    <t>Neelam Shukla-ULK-BUBEDBBE54C9</t>
+  </si>
+  <si>
+    <t>Amit Asthana-ULK-BUC5F9D0CFD0</t>
+  </si>
+  <si>
+    <t>Bidaraguppe Shashidhar Gokul-ULK-BUC95D531930</t>
+  </si>
+  <si>
+    <t>Vikas Lalji-ULK-BUCD4ECEC298</t>
+  </si>
+  <si>
+    <t>Prakhar Gupta-ULK-BUD00B4C5B17</t>
+  </si>
+  <si>
+    <t>Manoharan Dineshkumar-ULK-BUD1A119AF0C</t>
+  </si>
+  <si>
+    <t>Vanavarayan K-ULK-BUD4DEAB6DE0</t>
+  </si>
+  <si>
+    <t>Baiju Viswambharan -ULK-BUD5A746C744</t>
+  </si>
+  <si>
+    <t>Pratik Ramesh-ULK-BUD7E605A2BA</t>
+  </si>
+  <si>
+    <t>DEEPAK SOLANKI-ULK-BUD936415FA5</t>
+  </si>
+  <si>
+    <t>Himanshu Mahendra-ULK-BUDA08704CDF</t>
+  </si>
+  <si>
+    <t>VANAVARAYAN K-ULK-BUDA8C334CE9</t>
+  </si>
+  <si>
+    <t>Vanavarayan K-ULK-BUDB39A15EEC</t>
+  </si>
+  <si>
+    <t>Arun Acharya-ULK-BUDC4FB64FB5</t>
+  </si>
+  <si>
+    <t>Vikas Lalji-ULK-BUDCD4ECEC29</t>
+  </si>
+  <si>
+    <t>Appala Naidu Ganivada-ULK-BUDE30C1B12E</t>
+  </si>
+  <si>
+    <t>Vanavarayan K-ULK-BUE6939F62C8</t>
+  </si>
+  <si>
+    <t>Vanavarayan K-ULK-BUE7D5133B23</t>
+  </si>
+  <si>
+    <t>Hari Shankar-ULK-BUE963226500</t>
+  </si>
+  <si>
+    <t>Antim Rathaur-ULK-BUF2869C1A6F</t>
+  </si>
+  <si>
+    <t>test111arun</t>
+  </si>
+  <si>
+    <t>₹ 10</t>
+  </si>
+  <si>
+    <t>test111awru2n</t>
+  </si>
+  <si>
+    <t>Unassigned credit</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
+  <numFmts count="0"/>
   <fonts count="1" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
@@ -396,13 +2363,13 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{FB48D838-D3BA-4E76-8AFD-73627A884472}">
   <dimension ref="A1:B4"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="C2" sqref="C2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="2" max="2" width="16.33203125" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" bestFit="true" customWidth="true" width="16.33203125" collapsed="true"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:2" x14ac:dyDescent="0.3">
@@ -440,4 +2407,5581 @@
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{07C5C1AC-CDEE-4779-BC78-CF805D256983}">
+  <dimension ref="A1:B695"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0"/>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <cols>
+    <col min="1" max="1" bestFit="true" customWidth="true" width="42.88671875" collapsed="false"/>
+  </cols>
+  <sheetData>
+    <row r="1">
+      <c r="A1" t="s">
+        <v>6</v>
+      </c>
+      <c r="B1" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" t="s">
+        <v>8</v>
+      </c>
+      <c r="B2" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" t="s">
+        <v>9</v>
+      </c>
+      <c r="B3" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" t="s">
+        <v>10</v>
+      </c>
+      <c r="B4" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" t="s">
+        <v>11</v>
+      </c>
+      <c r="B5" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" t="s">
+        <v>12</v>
+      </c>
+      <c r="B6" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" t="s">
+        <v>13</v>
+      </c>
+      <c r="B7" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" t="s">
+        <v>14</v>
+      </c>
+      <c r="B8" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" t="s">
+        <v>15</v>
+      </c>
+      <c r="B9" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" t="s">
+        <v>16</v>
+      </c>
+      <c r="B10" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" t="s">
+        <v>17</v>
+      </c>
+      <c r="B11" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" t="s">
+        <v>18</v>
+      </c>
+      <c r="B12" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="13">
+      <c r="A13" t="s">
+        <v>19</v>
+      </c>
+      <c r="B13" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="14">
+      <c r="A14" t="s">
+        <v>20</v>
+      </c>
+      <c r="B14" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="15">
+      <c r="A15" t="s">
+        <v>21</v>
+      </c>
+      <c r="B15" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="16">
+      <c r="A16" t="s">
+        <v>22</v>
+      </c>
+      <c r="B16" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="17">
+      <c r="A17" t="s">
+        <v>23</v>
+      </c>
+      <c r="B17" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="18">
+      <c r="A18" t="s">
+        <v>24</v>
+      </c>
+      <c r="B18" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="19">
+      <c r="A19" t="s">
+        <v>25</v>
+      </c>
+      <c r="B19" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="20">
+      <c r="A20" t="s">
+        <v>26</v>
+      </c>
+      <c r="B20" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="21">
+      <c r="A21" t="s">
+        <v>27</v>
+      </c>
+      <c r="B21" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="22">
+      <c r="A22" t="s">
+        <v>28</v>
+      </c>
+      <c r="B22" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="23">
+      <c r="A23" t="s">
+        <v>29</v>
+      </c>
+      <c r="B23" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="24">
+      <c r="A24" t="s">
+        <v>30</v>
+      </c>
+      <c r="B24" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="25">
+      <c r="A25" t="s">
+        <v>31</v>
+      </c>
+      <c r="B25" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="26">
+      <c r="A26" t="s">
+        <v>32</v>
+      </c>
+      <c r="B26" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="27">
+      <c r="A27" t="s">
+        <v>33</v>
+      </c>
+      <c r="B27" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="28">
+      <c r="A28" t="s">
+        <v>34</v>
+      </c>
+      <c r="B28" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="29">
+      <c r="A29" t="s">
+        <v>19</v>
+      </c>
+      <c r="B29" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="30">
+      <c r="A30" t="s">
+        <v>35</v>
+      </c>
+      <c r="B30" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="31">
+      <c r="A31" t="s">
+        <v>36</v>
+      </c>
+      <c r="B31" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="32">
+      <c r="A32" t="s">
+        <v>37</v>
+      </c>
+      <c r="B32" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="33">
+      <c r="A33" t="s">
+        <v>19</v>
+      </c>
+      <c r="B33" t="s">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="34">
+      <c r="A34" t="s">
+        <v>39</v>
+      </c>
+      <c r="B34" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="35">
+      <c r="A35" t="s">
+        <v>40</v>
+      </c>
+      <c r="B35" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="36">
+      <c r="A36" t="s">
+        <v>41</v>
+      </c>
+      <c r="B36" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="37">
+      <c r="A37" t="s">
+        <v>42</v>
+      </c>
+      <c r="B37" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="38">
+      <c r="A38" t="s">
+        <v>43</v>
+      </c>
+      <c r="B38" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="39">
+      <c r="A39" t="s">
+        <v>44</v>
+      </c>
+      <c r="B39" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="40">
+      <c r="A40" t="s">
+        <v>45</v>
+      </c>
+      <c r="B40" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="41">
+      <c r="A41" t="s">
+        <v>46</v>
+      </c>
+      <c r="B41" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="42">
+      <c r="A42" t="s">
+        <v>47</v>
+      </c>
+      <c r="B42" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="43">
+      <c r="A43" t="s">
+        <v>48</v>
+      </c>
+      <c r="B43" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="44">
+      <c r="A44" t="s">
+        <v>49</v>
+      </c>
+      <c r="B44" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="45">
+      <c r="A45" t="s">
+        <v>50</v>
+      </c>
+      <c r="B45" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="46">
+      <c r="A46" t="s">
+        <v>51</v>
+      </c>
+      <c r="B46" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="47">
+      <c r="A47" t="s">
+        <v>52</v>
+      </c>
+      <c r="B47" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="48">
+      <c r="A48" t="s">
+        <v>53</v>
+      </c>
+      <c r="B48" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="49">
+      <c r="A49" t="s">
+        <v>54</v>
+      </c>
+      <c r="B49" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="50">
+      <c r="A50" t="s">
+        <v>55</v>
+      </c>
+      <c r="B50" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="51">
+      <c r="A51" t="s">
+        <v>56</v>
+      </c>
+      <c r="B51" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="52">
+      <c r="A52" t="s">
+        <v>57</v>
+      </c>
+      <c r="B52" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="53">
+      <c r="A53" t="s">
+        <v>58</v>
+      </c>
+      <c r="B53" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="54">
+      <c r="A54" t="s">
+        <v>59</v>
+      </c>
+      <c r="B54" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="55">
+      <c r="A55" t="s">
+        <v>60</v>
+      </c>
+      <c r="B55" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="56">
+      <c r="A56" t="s">
+        <v>61</v>
+      </c>
+      <c r="B56" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="57">
+      <c r="A57" t="s">
+        <v>62</v>
+      </c>
+      <c r="B57" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="58">
+      <c r="A58" t="s">
+        <v>19</v>
+      </c>
+      <c r="B58" t="s">
+        <v>63</v>
+      </c>
+    </row>
+    <row r="59">
+      <c r="A59" t="s">
+        <v>64</v>
+      </c>
+      <c r="B59" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="60">
+      <c r="A60" t="s">
+        <v>65</v>
+      </c>
+      <c r="B60" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="61">
+      <c r="A61" t="s">
+        <v>66</v>
+      </c>
+      <c r="B61" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="62">
+      <c r="A62" t="s">
+        <v>19</v>
+      </c>
+      <c r="B62" t="s">
+        <v>63</v>
+      </c>
+    </row>
+    <row r="63">
+      <c r="A63" t="s">
+        <v>67</v>
+      </c>
+      <c r="B63" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="64">
+      <c r="A64" t="s">
+        <v>68</v>
+      </c>
+      <c r="B64" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="65">
+      <c r="A65" t="s">
+        <v>69</v>
+      </c>
+      <c r="B65" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="66">
+      <c r="A66" t="s">
+        <v>70</v>
+      </c>
+      <c r="B66" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="67">
+      <c r="A67" t="s">
+        <v>71</v>
+      </c>
+      <c r="B67" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="68">
+      <c r="A68" t="s">
+        <v>72</v>
+      </c>
+      <c r="B68" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="69">
+      <c r="A69" t="s">
+        <v>73</v>
+      </c>
+      <c r="B69" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="70">
+      <c r="A70" t="s">
+        <v>74</v>
+      </c>
+      <c r="B70" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="71">
+      <c r="A71" t="s">
+        <v>75</v>
+      </c>
+      <c r="B71" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="72">
+      <c r="A72" t="s">
+        <v>76</v>
+      </c>
+      <c r="B72" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="73">
+      <c r="A73" t="s">
+        <v>77</v>
+      </c>
+      <c r="B73" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="74">
+      <c r="A74" t="s">
+        <v>78</v>
+      </c>
+      <c r="B74" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="75">
+      <c r="A75" t="s">
+        <v>79</v>
+      </c>
+      <c r="B75" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="76">
+      <c r="A76" t="s">
+        <v>80</v>
+      </c>
+      <c r="B76" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="77">
+      <c r="A77" t="s">
+        <v>81</v>
+      </c>
+      <c r="B77" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="78">
+      <c r="A78" t="s">
+        <v>82</v>
+      </c>
+      <c r="B78" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="79">
+      <c r="A79" t="s">
+        <v>83</v>
+      </c>
+      <c r="B79" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="80">
+      <c r="A80" t="s">
+        <v>19</v>
+      </c>
+      <c r="B80" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="81">
+      <c r="A81" t="s">
+        <v>84</v>
+      </c>
+      <c r="B81" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="82">
+      <c r="A82" t="s">
+        <v>85</v>
+      </c>
+      <c r="B82" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="83">
+      <c r="A83" t="s">
+        <v>86</v>
+      </c>
+      <c r="B83" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="84">
+      <c r="A84" t="s">
+        <v>87</v>
+      </c>
+      <c r="B84" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="85">
+      <c r="A85" t="s">
+        <v>88</v>
+      </c>
+      <c r="B85" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="86">
+      <c r="A86" t="s">
+        <v>89</v>
+      </c>
+      <c r="B86" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="87">
+      <c r="A87" t="s">
+        <v>90</v>
+      </c>
+      <c r="B87" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="88">
+      <c r="A88" t="s">
+        <v>19</v>
+      </c>
+      <c r="B88" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="89">
+      <c r="A89" t="s">
+        <v>91</v>
+      </c>
+      <c r="B89" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="90">
+      <c r="A90" t="s">
+        <v>92</v>
+      </c>
+      <c r="B90" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="91">
+      <c r="A91" t="s">
+        <v>93</v>
+      </c>
+      <c r="B91" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="92">
+      <c r="A92" t="s">
+        <v>94</v>
+      </c>
+      <c r="B92" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="93">
+      <c r="A93" t="s">
+        <v>95</v>
+      </c>
+      <c r="B93" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="94">
+      <c r="A94" t="s">
+        <v>96</v>
+      </c>
+      <c r="B94" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="95">
+      <c r="A95" t="s">
+        <v>97</v>
+      </c>
+      <c r="B95" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="96">
+      <c r="A96" t="s">
+        <v>98</v>
+      </c>
+      <c r="B96" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="97">
+      <c r="A97" t="s">
+        <v>99</v>
+      </c>
+      <c r="B97" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="98">
+      <c r="A98" t="s">
+        <v>100</v>
+      </c>
+      <c r="B98" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="99">
+      <c r="A99" t="s">
+        <v>101</v>
+      </c>
+      <c r="B99" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="100">
+      <c r="A100" t="s">
+        <v>19</v>
+      </c>
+      <c r="B100" t="s">
+        <v>63</v>
+      </c>
+    </row>
+    <row r="101">
+      <c r="A101" t="s">
+        <v>102</v>
+      </c>
+      <c r="B101" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="102">
+      <c r="A102" t="s">
+        <v>103</v>
+      </c>
+      <c r="B102" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="103">
+      <c r="A103" t="s">
+        <v>104</v>
+      </c>
+      <c r="B103" t="s">
+        <v>105</v>
+      </c>
+    </row>
+    <row r="104">
+      <c r="A104" t="s">
+        <v>106</v>
+      </c>
+      <c r="B104" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="105">
+      <c r="A105" t="s">
+        <v>107</v>
+      </c>
+      <c r="B105" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="106">
+      <c r="A106" t="s">
+        <v>108</v>
+      </c>
+      <c r="B106" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="107">
+      <c r="A107" t="s">
+        <v>19</v>
+      </c>
+      <c r="B107" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="108">
+      <c r="A108" t="s">
+        <v>109</v>
+      </c>
+      <c r="B108" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="109">
+      <c r="A109" t="s">
+        <v>110</v>
+      </c>
+      <c r="B109" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="110">
+      <c r="A110" t="s">
+        <v>111</v>
+      </c>
+      <c r="B110" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="111">
+      <c r="A111" t="s">
+        <v>112</v>
+      </c>
+      <c r="B111" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="112">
+      <c r="A112" t="s">
+        <v>113</v>
+      </c>
+      <c r="B112" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="113">
+      <c r="A113" t="s">
+        <v>114</v>
+      </c>
+      <c r="B113" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="114">
+      <c r="A114" t="s">
+        <v>115</v>
+      </c>
+      <c r="B114" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="115">
+      <c r="A115" t="s">
+        <v>116</v>
+      </c>
+      <c r="B115" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="116">
+      <c r="A116" t="s">
+        <v>117</v>
+      </c>
+      <c r="B116" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="117">
+      <c r="A117" t="s">
+        <v>118</v>
+      </c>
+      <c r="B117" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="118">
+      <c r="A118" t="s">
+        <v>119</v>
+      </c>
+      <c r="B118" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="119">
+      <c r="A119" t="s">
+        <v>120</v>
+      </c>
+      <c r="B119" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="120">
+      <c r="A120" t="s">
+        <v>121</v>
+      </c>
+      <c r="B120" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="121">
+      <c r="A121" t="s">
+        <v>122</v>
+      </c>
+      <c r="B121" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="122">
+      <c r="A122" t="s">
+        <v>123</v>
+      </c>
+      <c r="B122" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="123">
+      <c r="A123" t="s">
+        <v>124</v>
+      </c>
+      <c r="B123" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="124">
+      <c r="A124" t="s">
+        <v>125</v>
+      </c>
+      <c r="B124" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="125">
+      <c r="A125" t="s">
+        <v>126</v>
+      </c>
+      <c r="B125" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="126">
+      <c r="A126" t="s">
+        <v>127</v>
+      </c>
+      <c r="B126" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="127">
+      <c r="A127" t="s">
+        <v>128</v>
+      </c>
+      <c r="B127" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="128">
+      <c r="A128" t="s">
+        <v>129</v>
+      </c>
+      <c r="B128" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="129">
+      <c r="A129" t="s">
+        <v>130</v>
+      </c>
+      <c r="B129" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="130">
+      <c r="A130" t="s">
+        <v>19</v>
+      </c>
+      <c r="B130" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="131">
+      <c r="A131" t="s">
+        <v>131</v>
+      </c>
+      <c r="B131" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="132">
+      <c r="A132" t="s">
+        <v>132</v>
+      </c>
+      <c r="B132" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="133">
+      <c r="A133" t="s">
+        <v>133</v>
+      </c>
+      <c r="B133" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="134">
+      <c r="A134" t="s">
+        <v>134</v>
+      </c>
+      <c r="B134" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="135">
+      <c r="A135" t="s">
+        <v>135</v>
+      </c>
+      <c r="B135" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="136">
+      <c r="A136" t="s">
+        <v>136</v>
+      </c>
+      <c r="B136" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="137">
+      <c r="A137" t="s">
+        <v>137</v>
+      </c>
+      <c r="B137" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="138">
+      <c r="A138" t="s">
+        <v>138</v>
+      </c>
+      <c r="B138" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="139">
+      <c r="A139" t="s">
+        <v>139</v>
+      </c>
+      <c r="B139" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="140">
+      <c r="A140" t="s">
+        <v>140</v>
+      </c>
+      <c r="B140" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="141">
+      <c r="A141" t="s">
+        <v>141</v>
+      </c>
+      <c r="B141" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="142">
+      <c r="A142" t="s">
+        <v>19</v>
+      </c>
+      <c r="B142" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="143">
+      <c r="A143" t="s">
+        <v>142</v>
+      </c>
+      <c r="B143" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="144">
+      <c r="A144" t="s">
+        <v>143</v>
+      </c>
+      <c r="B144" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="145">
+      <c r="A145" t="s">
+        <v>144</v>
+      </c>
+      <c r="B145" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="146">
+      <c r="A146" t="s">
+        <v>145</v>
+      </c>
+      <c r="B146" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="147">
+      <c r="A147" t="s">
+        <v>146</v>
+      </c>
+      <c r="B147" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="148">
+      <c r="A148" t="s">
+        <v>147</v>
+      </c>
+      <c r="B148" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="149">
+      <c r="A149" t="s">
+        <v>148</v>
+      </c>
+      <c r="B149" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="150">
+      <c r="A150" t="s">
+        <v>149</v>
+      </c>
+      <c r="B150" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="151">
+      <c r="A151" t="s">
+        <v>150</v>
+      </c>
+      <c r="B151" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="152">
+      <c r="A152" t="s">
+        <v>151</v>
+      </c>
+      <c r="B152" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="153">
+      <c r="A153" t="s">
+        <v>152</v>
+      </c>
+      <c r="B153" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="154">
+      <c r="A154" t="s">
+        <v>153</v>
+      </c>
+      <c r="B154" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="155">
+      <c r="A155" t="s">
+        <v>154</v>
+      </c>
+      <c r="B155" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="156">
+      <c r="A156" t="s">
+        <v>155</v>
+      </c>
+      <c r="B156" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="157">
+      <c r="A157" t="s">
+        <v>156</v>
+      </c>
+      <c r="B157" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="158">
+      <c r="A158" t="s">
+        <v>157</v>
+      </c>
+      <c r="B158" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="159">
+      <c r="A159" t="s">
+        <v>19</v>
+      </c>
+      <c r="B159" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="160">
+      <c r="A160" t="s">
+        <v>158</v>
+      </c>
+      <c r="B160" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="161">
+      <c r="A161" t="s">
+        <v>159</v>
+      </c>
+      <c r="B161" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="162">
+      <c r="A162" t="s">
+        <v>160</v>
+      </c>
+      <c r="B162" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="163">
+      <c r="A163" t="s">
+        <v>161</v>
+      </c>
+      <c r="B163" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="164">
+      <c r="A164" t="s">
+        <v>162</v>
+      </c>
+      <c r="B164" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="165">
+      <c r="A165" t="s">
+        <v>163</v>
+      </c>
+      <c r="B165" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="166">
+      <c r="A166" t="s">
+        <v>164</v>
+      </c>
+      <c r="B166" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="167">
+      <c r="A167" t="s">
+        <v>165</v>
+      </c>
+      <c r="B167" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="168">
+      <c r="A168" t="s">
+        <v>166</v>
+      </c>
+      <c r="B168" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="169">
+      <c r="A169" t="s">
+        <v>167</v>
+      </c>
+      <c r="B169" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="170">
+      <c r="A170" t="s">
+        <v>168</v>
+      </c>
+      <c r="B170" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="171">
+      <c r="A171" t="s">
+        <v>19</v>
+      </c>
+      <c r="B171" t="s">
+        <v>63</v>
+      </c>
+    </row>
+    <row r="172">
+      <c r="A172" t="s">
+        <v>169</v>
+      </c>
+      <c r="B172" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="173">
+      <c r="A173" t="s">
+        <v>170</v>
+      </c>
+      <c r="B173" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="174">
+      <c r="A174" t="s">
+        <v>171</v>
+      </c>
+      <c r="B174" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="175">
+      <c r="A175" t="s">
+        <v>172</v>
+      </c>
+      <c r="B175" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="176">
+      <c r="A176" t="s">
+        <v>173</v>
+      </c>
+      <c r="B176" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="177">
+      <c r="A177" t="s">
+        <v>174</v>
+      </c>
+      <c r="B177" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="178">
+      <c r="A178" t="s">
+        <v>175</v>
+      </c>
+      <c r="B178" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="179">
+      <c r="A179" t="s">
+        <v>19</v>
+      </c>
+      <c r="B179" t="s">
+        <v>63</v>
+      </c>
+    </row>
+    <row r="180">
+      <c r="A180" t="s">
+        <v>176</v>
+      </c>
+      <c r="B180" t="s">
+        <v>177</v>
+      </c>
+    </row>
+    <row r="181">
+      <c r="A181" t="s">
+        <v>178</v>
+      </c>
+      <c r="B181" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="182">
+      <c r="A182" t="s">
+        <v>179</v>
+      </c>
+      <c r="B182" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="183">
+      <c r="A183" t="s">
+        <v>180</v>
+      </c>
+      <c r="B183" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="184">
+      <c r="A184" t="s">
+        <v>181</v>
+      </c>
+      <c r="B184" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="185">
+      <c r="A185" t="s">
+        <v>182</v>
+      </c>
+      <c r="B185" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="186">
+      <c r="A186" t="s">
+        <v>183</v>
+      </c>
+      <c r="B186" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="187">
+      <c r="A187" t="s">
+        <v>184</v>
+      </c>
+      <c r="B187" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="188">
+      <c r="A188" t="s">
+        <v>185</v>
+      </c>
+      <c r="B188" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="189">
+      <c r="A189" t="s">
+        <v>186</v>
+      </c>
+      <c r="B189" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="190">
+      <c r="A190" t="s">
+        <v>187</v>
+      </c>
+      <c r="B190" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="191">
+      <c r="A191" t="s">
+        <v>188</v>
+      </c>
+      <c r="B191" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="192">
+      <c r="A192" t="s">
+        <v>189</v>
+      </c>
+      <c r="B192" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="193">
+      <c r="A193" t="s">
+        <v>190</v>
+      </c>
+      <c r="B193" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="194">
+      <c r="A194" t="s">
+        <v>191</v>
+      </c>
+      <c r="B194" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="195">
+      <c r="A195" t="s">
+        <v>192</v>
+      </c>
+      <c r="B195" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="196">
+      <c r="A196" t="s">
+        <v>19</v>
+      </c>
+      <c r="B196" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="197">
+      <c r="A197" t="s">
+        <v>193</v>
+      </c>
+      <c r="B197" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="198">
+      <c r="A198" t="s">
+        <v>194</v>
+      </c>
+      <c r="B198" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="199">
+      <c r="A199" t="s">
+        <v>195</v>
+      </c>
+      <c r="B199" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="200">
+      <c r="A200" t="s">
+        <v>196</v>
+      </c>
+      <c r="B200" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="201">
+      <c r="A201" t="s">
+        <v>197</v>
+      </c>
+      <c r="B201" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="202">
+      <c r="A202" t="s">
+        <v>198</v>
+      </c>
+      <c r="B202" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="203">
+      <c r="A203" t="s">
+        <v>199</v>
+      </c>
+      <c r="B203" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="204">
+      <c r="A204" t="s">
+        <v>200</v>
+      </c>
+      <c r="B204" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="205">
+      <c r="A205" t="s">
+        <v>201</v>
+      </c>
+      <c r="B205" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="206">
+      <c r="A206" t="s">
+        <v>202</v>
+      </c>
+      <c r="B206" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="207">
+      <c r="A207" t="s">
+        <v>203</v>
+      </c>
+      <c r="B207" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="208">
+      <c r="A208" t="s">
+        <v>204</v>
+      </c>
+      <c r="B208" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="209">
+      <c r="A209" t="s">
+        <v>19</v>
+      </c>
+      <c r="B209" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="210">
+      <c r="A210" t="s">
+        <v>205</v>
+      </c>
+      <c r="B210" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="211">
+      <c r="A211" t="s">
+        <v>104</v>
+      </c>
+      <c r="B211" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="212">
+      <c r="A212" t="s">
+        <v>206</v>
+      </c>
+      <c r="B212" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="213">
+      <c r="A213" t="s">
+        <v>207</v>
+      </c>
+      <c r="B213" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="214">
+      <c r="A214" t="s">
+        <v>208</v>
+      </c>
+      <c r="B214" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="215">
+      <c r="A215" t="s">
+        <v>209</v>
+      </c>
+      <c r="B215" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="216">
+      <c r="A216" t="s">
+        <v>210</v>
+      </c>
+      <c r="B216" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="217">
+      <c r="A217" t="s">
+        <v>19</v>
+      </c>
+      <c r="B217" t="s">
+        <v>63</v>
+      </c>
+    </row>
+    <row r="218">
+      <c r="A218" t="s">
+        <v>211</v>
+      </c>
+      <c r="B218" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="219">
+      <c r="A219" t="s">
+        <v>19</v>
+      </c>
+      <c r="B219" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="220">
+      <c r="A220" t="s">
+        <v>212</v>
+      </c>
+      <c r="B220" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="221">
+      <c r="A221" t="s">
+        <v>213</v>
+      </c>
+      <c r="B221" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="222">
+      <c r="A222" t="s">
+        <v>214</v>
+      </c>
+      <c r="B222" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="223">
+      <c r="A223" t="s">
+        <v>215</v>
+      </c>
+      <c r="B223" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="224">
+      <c r="A224" t="s">
+        <v>216</v>
+      </c>
+      <c r="B224" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="225">
+      <c r="A225" t="s">
+        <v>217</v>
+      </c>
+      <c r="B225" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="226">
+      <c r="A226" t="s">
+        <v>218</v>
+      </c>
+      <c r="B226" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="227">
+      <c r="A227" t="s">
+        <v>219</v>
+      </c>
+      <c r="B227" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="228">
+      <c r="A228" t="s">
+        <v>220</v>
+      </c>
+      <c r="B228" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="229">
+      <c r="A229" t="s">
+        <v>221</v>
+      </c>
+      <c r="B229" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="230">
+      <c r="A230" t="s">
+        <v>222</v>
+      </c>
+      <c r="B230" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="231">
+      <c r="A231" t="s">
+        <v>223</v>
+      </c>
+      <c r="B231" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="232">
+      <c r="A232" t="s">
+        <v>224</v>
+      </c>
+      <c r="B232" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="233">
+      <c r="A233" t="s">
+        <v>225</v>
+      </c>
+      <c r="B233" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="234">
+      <c r="A234" t="s">
+        <v>226</v>
+      </c>
+      <c r="B234" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="235">
+      <c r="A235" t="s">
+        <v>227</v>
+      </c>
+      <c r="B235" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="236">
+      <c r="A236" t="s">
+        <v>228</v>
+      </c>
+      <c r="B236" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="237">
+      <c r="A237" t="s">
+        <v>229</v>
+      </c>
+      <c r="B237" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="238">
+      <c r="A238" t="s">
+        <v>230</v>
+      </c>
+      <c r="B238" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="239">
+      <c r="A239" t="s">
+        <v>231</v>
+      </c>
+      <c r="B239" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="240">
+      <c r="A240" t="s">
+        <v>232</v>
+      </c>
+      <c r="B240" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="241">
+      <c r="A241" t="s">
+        <v>233</v>
+      </c>
+      <c r="B241" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="242">
+      <c r="A242" t="s">
+        <v>234</v>
+      </c>
+      <c r="B242" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="243">
+      <c r="A243" t="s">
+        <v>235</v>
+      </c>
+      <c r="B243" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="244">
+      <c r="A244" t="s">
+        <v>19</v>
+      </c>
+      <c r="B244" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="245">
+      <c r="A245" t="s">
+        <v>236</v>
+      </c>
+      <c r="B245" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="246">
+      <c r="A246" t="s">
+        <v>237</v>
+      </c>
+      <c r="B246" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="247">
+      <c r="A247" t="s">
+        <v>238</v>
+      </c>
+      <c r="B247" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="248">
+      <c r="A248" t="s">
+        <v>19</v>
+      </c>
+      <c r="B248" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="249">
+      <c r="A249" t="s">
+        <v>239</v>
+      </c>
+      <c r="B249" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="250">
+      <c r="A250" t="s">
+        <v>240</v>
+      </c>
+      <c r="B250" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="251">
+      <c r="A251" t="s">
+        <v>241</v>
+      </c>
+      <c r="B251" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="252">
+      <c r="A252" t="s">
+        <v>242</v>
+      </c>
+      <c r="B252" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="253">
+      <c r="A253" t="s">
+        <v>243</v>
+      </c>
+      <c r="B253" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="254">
+      <c r="A254" t="s">
+        <v>19</v>
+      </c>
+      <c r="B254" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="255">
+      <c r="A255" t="s">
+        <v>244</v>
+      </c>
+      <c r="B255" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="256">
+      <c r="A256" t="s">
+        <v>245</v>
+      </c>
+      <c r="B256" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="257">
+      <c r="A257" t="s">
+        <v>246</v>
+      </c>
+      <c r="B257" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="258">
+      <c r="A258" t="s">
+        <v>247</v>
+      </c>
+      <c r="B258" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="259">
+      <c r="A259" t="s">
+        <v>248</v>
+      </c>
+      <c r="B259" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="260">
+      <c r="A260" t="s">
+        <v>249</v>
+      </c>
+      <c r="B260" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="261">
+      <c r="A261" t="s">
+        <v>250</v>
+      </c>
+      <c r="B261" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="262">
+      <c r="A262" t="s">
+        <v>251</v>
+      </c>
+      <c r="B262" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="263">
+      <c r="A263" t="s">
+        <v>252</v>
+      </c>
+      <c r="B263" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="264">
+      <c r="A264" t="s">
+        <v>253</v>
+      </c>
+      <c r="B264" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="265">
+      <c r="A265" t="s">
+        <v>254</v>
+      </c>
+      <c r="B265" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="266">
+      <c r="A266" t="s">
+        <v>255</v>
+      </c>
+      <c r="B266" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="267">
+      <c r="A267" t="s">
+        <v>256</v>
+      </c>
+      <c r="B267" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="268">
+      <c r="A268" t="s">
+        <v>257</v>
+      </c>
+      <c r="B268" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="269">
+      <c r="A269" t="s">
+        <v>258</v>
+      </c>
+      <c r="B269" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="270">
+      <c r="A270" t="s">
+        <v>259</v>
+      </c>
+      <c r="B270" t="s">
+        <v>260</v>
+      </c>
+    </row>
+    <row r="271">
+      <c r="A271" t="s">
+        <v>261</v>
+      </c>
+      <c r="B271" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="272">
+      <c r="A272" t="s">
+        <v>262</v>
+      </c>
+      <c r="B272" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="273">
+      <c r="A273" t="s">
+        <v>263</v>
+      </c>
+      <c r="B273" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="274">
+      <c r="A274" t="s">
+        <v>264</v>
+      </c>
+      <c r="B274" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="275">
+      <c r="A275" t="s">
+        <v>265</v>
+      </c>
+      <c r="B275" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="276">
+      <c r="A276" t="s">
+        <v>266</v>
+      </c>
+      <c r="B276" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="277">
+      <c r="A277" t="s">
+        <v>267</v>
+      </c>
+      <c r="B277" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="278">
+      <c r="A278" t="s">
+        <v>268</v>
+      </c>
+      <c r="B278" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="279">
+      <c r="A279" t="s">
+        <v>269</v>
+      </c>
+      <c r="B279" t="s">
+        <v>270</v>
+      </c>
+    </row>
+    <row r="280">
+      <c r="A280" t="s">
+        <v>271</v>
+      </c>
+      <c r="B280" t="s">
+        <v>272</v>
+      </c>
+    </row>
+    <row r="281">
+      <c r="A281" t="s">
+        <v>273</v>
+      </c>
+      <c r="B281" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="282">
+      <c r="A282" t="s">
+        <v>19</v>
+      </c>
+      <c r="B282" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="283">
+      <c r="A283" t="s">
+        <v>274</v>
+      </c>
+      <c r="B283" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="284">
+      <c r="A284" t="s">
+        <v>275</v>
+      </c>
+      <c r="B284" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="285">
+      <c r="A285" t="s">
+        <v>276</v>
+      </c>
+      <c r="B285" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="286">
+      <c r="A286" t="s">
+        <v>277</v>
+      </c>
+      <c r="B286" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="287">
+      <c r="A287" t="s">
+        <v>278</v>
+      </c>
+      <c r="B287" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="288">
+      <c r="A288" t="s">
+        <v>279</v>
+      </c>
+      <c r="B288" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="289">
+      <c r="A289" t="s">
+        <v>280</v>
+      </c>
+      <c r="B289" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="290">
+      <c r="A290" t="s">
+        <v>281</v>
+      </c>
+      <c r="B290" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="291">
+      <c r="A291" t="s">
+        <v>282</v>
+      </c>
+      <c r="B291" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="292">
+      <c r="A292" t="s">
+        <v>283</v>
+      </c>
+      <c r="B292" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="293">
+      <c r="A293" t="s">
+        <v>284</v>
+      </c>
+      <c r="B293" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="294">
+      <c r="A294" t="s">
+        <v>285</v>
+      </c>
+      <c r="B294" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="295">
+      <c r="A295" t="s">
+        <v>19</v>
+      </c>
+      <c r="B295" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="296">
+      <c r="A296" t="s">
+        <v>286</v>
+      </c>
+      <c r="B296" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="297">
+      <c r="A297" t="s">
+        <v>287</v>
+      </c>
+      <c r="B297" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="298">
+      <c r="A298" t="s">
+        <v>288</v>
+      </c>
+      <c r="B298" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="299">
+      <c r="A299" t="s">
+        <v>289</v>
+      </c>
+      <c r="B299" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="300">
+      <c r="A300" t="s">
+        <v>290</v>
+      </c>
+      <c r="B300" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="301">
+      <c r="A301" t="s">
+        <v>291</v>
+      </c>
+      <c r="B301" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="302">
+      <c r="A302" t="s">
+        <v>292</v>
+      </c>
+      <c r="B302" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="303">
+      <c r="A303" t="s">
+        <v>293</v>
+      </c>
+      <c r="B303" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="304">
+      <c r="A304" t="s">
+        <v>294</v>
+      </c>
+      <c r="B304" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="305">
+      <c r="A305" t="s">
+        <v>295</v>
+      </c>
+      <c r="B305" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="306">
+      <c r="A306" t="s">
+        <v>296</v>
+      </c>
+      <c r="B306" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="307">
+      <c r="A307" t="s">
+        <v>297</v>
+      </c>
+      <c r="B307" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="308">
+      <c r="A308" t="s">
+        <v>298</v>
+      </c>
+      <c r="B308" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="309">
+      <c r="A309" t="s">
+        <v>19</v>
+      </c>
+      <c r="B309" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="310">
+      <c r="A310" t="s">
+        <v>299</v>
+      </c>
+      <c r="B310" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="311">
+      <c r="A311" t="s">
+        <v>300</v>
+      </c>
+      <c r="B311" t="s">
+        <v>260</v>
+      </c>
+    </row>
+    <row r="312">
+      <c r="A312" t="s">
+        <v>301</v>
+      </c>
+      <c r="B312" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="313">
+      <c r="A313" t="s">
+        <v>302</v>
+      </c>
+      <c r="B313" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="314">
+      <c r="A314" t="s">
+        <v>303</v>
+      </c>
+      <c r="B314" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="315">
+      <c r="A315" t="s">
+        <v>304</v>
+      </c>
+      <c r="B315" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="316">
+      <c r="A316" t="s">
+        <v>305</v>
+      </c>
+      <c r="B316" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="317">
+      <c r="A317" t="s">
+        <v>306</v>
+      </c>
+      <c r="B317" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="318">
+      <c r="A318" t="s">
+        <v>307</v>
+      </c>
+      <c r="B318" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="319">
+      <c r="A319" t="s">
+        <v>308</v>
+      </c>
+      <c r="B319" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="320">
+      <c r="A320" t="s">
+        <v>309</v>
+      </c>
+      <c r="B320" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="321">
+      <c r="A321" t="s">
+        <v>310</v>
+      </c>
+      <c r="B321" t="s">
+        <v>270</v>
+      </c>
+    </row>
+    <row r="322">
+      <c r="A322" t="s">
+        <v>311</v>
+      </c>
+      <c r="B322" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="323">
+      <c r="A323" t="s">
+        <v>312</v>
+      </c>
+      <c r="B323" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="324">
+      <c r="A324" t="s">
+        <v>313</v>
+      </c>
+      <c r="B324" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="325">
+      <c r="A325" t="s">
+        <v>314</v>
+      </c>
+      <c r="B325" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="326">
+      <c r="A326" t="s">
+        <v>315</v>
+      </c>
+      <c r="B326" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="327">
+      <c r="A327" t="s">
+        <v>316</v>
+      </c>
+      <c r="B327" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="328">
+      <c r="A328" t="s">
+        <v>317</v>
+      </c>
+      <c r="B328" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="329">
+      <c r="A329" t="s">
+        <v>318</v>
+      </c>
+      <c r="B329" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="330">
+      <c r="A330" t="s">
+        <v>319</v>
+      </c>
+      <c r="B330" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="331">
+      <c r="A331" t="s">
+        <v>320</v>
+      </c>
+      <c r="B331" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="332">
+      <c r="A332" t="s">
+        <v>321</v>
+      </c>
+      <c r="B332" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="333">
+      <c r="A333" t="s">
+        <v>322</v>
+      </c>
+      <c r="B333" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="334">
+      <c r="A334" t="s">
+        <v>323</v>
+      </c>
+      <c r="B334" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="335">
+      <c r="A335" t="s">
+        <v>324</v>
+      </c>
+      <c r="B335" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="336">
+      <c r="A336" t="s">
+        <v>325</v>
+      </c>
+      <c r="B336" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="337">
+      <c r="A337" t="s">
+        <v>326</v>
+      </c>
+      <c r="B337" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="338">
+      <c r="A338" t="s">
+        <v>327</v>
+      </c>
+      <c r="B338" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="339">
+      <c r="A339" t="s">
+        <v>328</v>
+      </c>
+      <c r="B339" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="340">
+      <c r="A340" t="s">
+        <v>19</v>
+      </c>
+      <c r="B340" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="341">
+      <c r="A341" t="s">
+        <v>329</v>
+      </c>
+      <c r="B341" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="342">
+      <c r="A342" t="s">
+        <v>330</v>
+      </c>
+      <c r="B342" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="343">
+      <c r="A343" t="s">
+        <v>331</v>
+      </c>
+      <c r="B343" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="344">
+      <c r="A344" t="s">
+        <v>332</v>
+      </c>
+      <c r="B344" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="345">
+      <c r="A345" t="s">
+        <v>333</v>
+      </c>
+      <c r="B345" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="346">
+      <c r="A346" t="s">
+        <v>19</v>
+      </c>
+      <c r="B346" t="s">
+        <v>105</v>
+      </c>
+    </row>
+    <row r="347">
+      <c r="A347" t="s">
+        <v>334</v>
+      </c>
+      <c r="B347" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="348">
+      <c r="A348" t="s">
+        <v>335</v>
+      </c>
+      <c r="B348" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="349">
+      <c r="A349" t="s">
+        <v>336</v>
+      </c>
+      <c r="B349" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="350">
+      <c r="A350" t="s">
+        <v>337</v>
+      </c>
+      <c r="B350" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="351">
+      <c r="A351" t="s">
+        <v>338</v>
+      </c>
+      <c r="B351" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="352">
+      <c r="A352" t="s">
+        <v>339</v>
+      </c>
+      <c r="B352" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="353">
+      <c r="A353" t="s">
+        <v>340</v>
+      </c>
+      <c r="B353" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="354">
+      <c r="A354" t="s">
+        <v>341</v>
+      </c>
+      <c r="B354" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="355">
+      <c r="A355" t="s">
+        <v>342</v>
+      </c>
+      <c r="B355" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="356">
+      <c r="A356" t="s">
+        <v>343</v>
+      </c>
+      <c r="B356" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="357">
+      <c r="A357" t="s">
+        <v>344</v>
+      </c>
+      <c r="B357" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="358">
+      <c r="A358" t="s">
+        <v>345</v>
+      </c>
+      <c r="B358" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="359">
+      <c r="A359" t="s">
+        <v>19</v>
+      </c>
+      <c r="B359" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="360">
+      <c r="A360" t="s">
+        <v>346</v>
+      </c>
+      <c r="B360" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="361">
+      <c r="A361" t="s">
+        <v>347</v>
+      </c>
+      <c r="B361" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="362">
+      <c r="A362" t="s">
+        <v>348</v>
+      </c>
+      <c r="B362" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="363">
+      <c r="A363" t="s">
+        <v>349</v>
+      </c>
+      <c r="B363" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="364">
+      <c r="A364" t="s">
+        <v>350</v>
+      </c>
+      <c r="B364" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="365">
+      <c r="A365" t="s">
+        <v>351</v>
+      </c>
+      <c r="B365" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="366">
+      <c r="A366" t="s">
+        <v>352</v>
+      </c>
+      <c r="B366" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="367">
+      <c r="A367" t="s">
+        <v>353</v>
+      </c>
+      <c r="B367" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="368">
+      <c r="A368" t="s">
+        <v>354</v>
+      </c>
+      <c r="B368" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="369">
+      <c r="A369" t="s">
+        <v>355</v>
+      </c>
+      <c r="B369" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="370">
+      <c r="A370" t="s">
+        <v>356</v>
+      </c>
+      <c r="B370" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="371">
+      <c r="A371" t="s">
+        <v>357</v>
+      </c>
+      <c r="B371" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="372">
+      <c r="A372" t="s">
+        <v>358</v>
+      </c>
+      <c r="B372" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="373">
+      <c r="A373" t="s">
+        <v>359</v>
+      </c>
+      <c r="B373" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="374">
+      <c r="A374" t="s">
+        <v>360</v>
+      </c>
+      <c r="B374" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="375">
+      <c r="A375" t="s">
+        <v>361</v>
+      </c>
+      <c r="B375" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="376">
+      <c r="A376" t="s">
+        <v>362</v>
+      </c>
+      <c r="B376" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="377">
+      <c r="A377" t="s">
+        <v>363</v>
+      </c>
+      <c r="B377" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="378">
+      <c r="A378" t="s">
+        <v>364</v>
+      </c>
+      <c r="B378" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="379">
+      <c r="A379" t="s">
+        <v>365</v>
+      </c>
+      <c r="B379" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="380">
+      <c r="A380" t="s">
+        <v>366</v>
+      </c>
+      <c r="B380" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="381">
+      <c r="A381" t="s">
+        <v>19</v>
+      </c>
+      <c r="B381" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="382">
+      <c r="A382" t="s">
+        <v>367</v>
+      </c>
+      <c r="B382" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="383">
+      <c r="A383" t="s">
+        <v>368</v>
+      </c>
+      <c r="B383" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="384">
+      <c r="A384" t="s">
+        <v>369</v>
+      </c>
+      <c r="B384" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="385">
+      <c r="A385" t="s">
+        <v>370</v>
+      </c>
+      <c r="B385" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="386">
+      <c r="A386" t="s">
+        <v>371</v>
+      </c>
+      <c r="B386" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="387">
+      <c r="A387" t="s">
+        <v>372</v>
+      </c>
+      <c r="B387" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="388">
+      <c r="A388" t="s">
+        <v>373</v>
+      </c>
+      <c r="B388" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="389">
+      <c r="A389" t="s">
+        <v>374</v>
+      </c>
+      <c r="B389" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="390">
+      <c r="A390" t="s">
+        <v>375</v>
+      </c>
+      <c r="B390" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="391">
+      <c r="A391" t="s">
+        <v>376</v>
+      </c>
+      <c r="B391" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="392">
+      <c r="A392" t="s">
+        <v>377</v>
+      </c>
+      <c r="B392" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="393">
+      <c r="A393" t="s">
+        <v>378</v>
+      </c>
+      <c r="B393" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="394">
+      <c r="A394" t="s">
+        <v>379</v>
+      </c>
+      <c r="B394" t="s">
+        <v>272</v>
+      </c>
+    </row>
+    <row r="395">
+      <c r="A395" t="s">
+        <v>380</v>
+      </c>
+      <c r="B395" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="396">
+      <c r="A396" t="s">
+        <v>381</v>
+      </c>
+      <c r="B396" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="397">
+      <c r="A397" t="s">
+        <v>382</v>
+      </c>
+      <c r="B397" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="398">
+      <c r="A398" t="s">
+        <v>383</v>
+      </c>
+      <c r="B398" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="399">
+      <c r="A399" t="s">
+        <v>384</v>
+      </c>
+      <c r="B399" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="400">
+      <c r="A400" t="s">
+        <v>385</v>
+      </c>
+      <c r="B400" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="401">
+      <c r="A401" t="s">
+        <v>19</v>
+      </c>
+      <c r="B401" t="s">
+        <v>63</v>
+      </c>
+    </row>
+    <row r="402">
+      <c r="A402" t="s">
+        <v>386</v>
+      </c>
+      <c r="B402" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="403">
+      <c r="A403" t="s">
+        <v>387</v>
+      </c>
+      <c r="B403" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="404">
+      <c r="A404" t="s">
+        <v>388</v>
+      </c>
+      <c r="B404" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="405">
+      <c r="A405" t="s">
+        <v>389</v>
+      </c>
+      <c r="B405" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="406">
+      <c r="A406" t="s">
+        <v>390</v>
+      </c>
+      <c r="B406" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="407">
+      <c r="A407" t="s">
+        <v>391</v>
+      </c>
+      <c r="B407" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="408">
+      <c r="A408" t="s">
+        <v>392</v>
+      </c>
+      <c r="B408" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="409">
+      <c r="A409" t="s">
+        <v>393</v>
+      </c>
+      <c r="B409" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="410">
+      <c r="A410" t="s">
+        <v>394</v>
+      </c>
+      <c r="B410" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="411">
+      <c r="A411" t="s">
+        <v>395</v>
+      </c>
+      <c r="B411" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="412">
+      <c r="A412" t="s">
+        <v>396</v>
+      </c>
+      <c r="B412" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="413">
+      <c r="A413" t="s">
+        <v>397</v>
+      </c>
+      <c r="B413" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="414">
+      <c r="A414" t="s">
+        <v>398</v>
+      </c>
+      <c r="B414" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="415">
+      <c r="A415" t="s">
+        <v>399</v>
+      </c>
+      <c r="B415" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="416">
+      <c r="A416" t="s">
+        <v>400</v>
+      </c>
+      <c r="B416" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="417">
+      <c r="A417" t="s">
+        <v>401</v>
+      </c>
+      <c r="B417" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="418">
+      <c r="A418" t="s">
+        <v>402</v>
+      </c>
+      <c r="B418" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="419">
+      <c r="A419" t="s">
+        <v>403</v>
+      </c>
+      <c r="B419" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="420">
+      <c r="A420" t="s">
+        <v>404</v>
+      </c>
+      <c r="B420" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="421">
+      <c r="A421" t="s">
+        <v>405</v>
+      </c>
+      <c r="B421" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="422">
+      <c r="A422" t="s">
+        <v>406</v>
+      </c>
+      <c r="B422" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="423">
+      <c r="A423" t="s">
+        <v>407</v>
+      </c>
+      <c r="B423" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="424">
+      <c r="A424" t="s">
+        <v>19</v>
+      </c>
+      <c r="B424" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="425">
+      <c r="A425" t="s">
+        <v>408</v>
+      </c>
+      <c r="B425" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="426">
+      <c r="A426" t="s">
+        <v>409</v>
+      </c>
+      <c r="B426" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="427">
+      <c r="A427" t="s">
+        <v>410</v>
+      </c>
+      <c r="B427" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="428">
+      <c r="A428" t="s">
+        <v>411</v>
+      </c>
+      <c r="B428" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="429">
+      <c r="A429" t="s">
+        <v>412</v>
+      </c>
+      <c r="B429" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="430">
+      <c r="A430" t="s">
+        <v>413</v>
+      </c>
+      <c r="B430" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="431">
+      <c r="A431" t="s">
+        <v>414</v>
+      </c>
+      <c r="B431" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="432">
+      <c r="A432" t="s">
+        <v>415</v>
+      </c>
+      <c r="B432" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="433">
+      <c r="A433" t="s">
+        <v>416</v>
+      </c>
+      <c r="B433" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="434">
+      <c r="A434" t="s">
+        <v>417</v>
+      </c>
+      <c r="B434" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="435">
+      <c r="A435" t="s">
+        <v>418</v>
+      </c>
+      <c r="B435" t="s">
+        <v>177</v>
+      </c>
+    </row>
+    <row r="436">
+      <c r="A436" t="s">
+        <v>419</v>
+      </c>
+      <c r="B436" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="437">
+      <c r="A437" t="s">
+        <v>420</v>
+      </c>
+      <c r="B437" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="438">
+      <c r="A438" t="s">
+        <v>421</v>
+      </c>
+      <c r="B438" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="439">
+      <c r="A439" t="s">
+        <v>422</v>
+      </c>
+      <c r="B439" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="440">
+      <c r="A440" t="s">
+        <v>423</v>
+      </c>
+      <c r="B440" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="441">
+      <c r="A441" t="s">
+        <v>424</v>
+      </c>
+      <c r="B441" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="442">
+      <c r="A442" t="s">
+        <v>425</v>
+      </c>
+      <c r="B442" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="443">
+      <c r="A443" t="s">
+        <v>426</v>
+      </c>
+      <c r="B443" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="444">
+      <c r="A444" t="s">
+        <v>427</v>
+      </c>
+      <c r="B444" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="445">
+      <c r="A445" t="s">
+        <v>428</v>
+      </c>
+      <c r="B445" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="446">
+      <c r="A446" t="s">
+        <v>429</v>
+      </c>
+      <c r="B446" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="447">
+      <c r="A447" t="s">
+        <v>430</v>
+      </c>
+      <c r="B447" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="448">
+      <c r="A448" t="s">
+        <v>431</v>
+      </c>
+      <c r="B448" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="449">
+      <c r="A449" t="s">
+        <v>432</v>
+      </c>
+      <c r="B449" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="450">
+      <c r="A450" t="s">
+        <v>433</v>
+      </c>
+      <c r="B450" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="451">
+      <c r="A451" t="s">
+        <v>19</v>
+      </c>
+      <c r="B451" t="s">
+        <v>434</v>
+      </c>
+    </row>
+    <row r="452">
+      <c r="A452" t="s">
+        <v>435</v>
+      </c>
+      <c r="B452" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="453">
+      <c r="A453" t="s">
+        <v>436</v>
+      </c>
+      <c r="B453" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="454">
+      <c r="A454" t="s">
+        <v>19</v>
+      </c>
+      <c r="B454" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="455">
+      <c r="A455" t="s">
+        <v>437</v>
+      </c>
+      <c r="B455" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="456">
+      <c r="A456" t="s">
+        <v>19</v>
+      </c>
+      <c r="B456" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="457">
+      <c r="A457" t="s">
+        <v>438</v>
+      </c>
+      <c r="B457" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="458">
+      <c r="A458" t="s">
+        <v>439</v>
+      </c>
+      <c r="B458" t="s">
+        <v>440</v>
+      </c>
+    </row>
+    <row r="459">
+      <c r="A459" t="s">
+        <v>441</v>
+      </c>
+      <c r="B459" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="460">
+      <c r="A460" t="s">
+        <v>442</v>
+      </c>
+      <c r="B460" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="461">
+      <c r="A461" t="s">
+        <v>19</v>
+      </c>
+      <c r="B461" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="462">
+      <c r="A462" t="s">
+        <v>443</v>
+      </c>
+      <c r="B462" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="463">
+      <c r="A463" t="s">
+        <v>444</v>
+      </c>
+      <c r="B463" t="s">
+        <v>270</v>
+      </c>
+    </row>
+    <row r="464">
+      <c r="A464" t="s">
+        <v>445</v>
+      </c>
+      <c r="B464" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="465">
+      <c r="A465" t="s">
+        <v>446</v>
+      </c>
+      <c r="B465" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="466">
+      <c r="A466" t="s">
+        <v>447</v>
+      </c>
+      <c r="B466" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="467">
+      <c r="A467" t="s">
+        <v>448</v>
+      </c>
+      <c r="B467" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="468">
+      <c r="A468" t="s">
+        <v>19</v>
+      </c>
+      <c r="B468" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="469">
+      <c r="A469" t="s">
+        <v>449</v>
+      </c>
+      <c r="B469" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="470">
+      <c r="A470" t="s">
+        <v>450</v>
+      </c>
+      <c r="B470" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="471">
+      <c r="A471" t="s">
+        <v>451</v>
+      </c>
+      <c r="B471" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="472">
+      <c r="A472" t="s">
+        <v>452</v>
+      </c>
+      <c r="B472" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="473">
+      <c r="A473" t="s">
+        <v>453</v>
+      </c>
+      <c r="B473" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="474">
+      <c r="A474" t="s">
+        <v>454</v>
+      </c>
+      <c r="B474" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="475">
+      <c r="A475" t="s">
+        <v>455</v>
+      </c>
+      <c r="B475" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="476">
+      <c r="A476" t="s">
+        <v>456</v>
+      </c>
+      <c r="B476" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="477">
+      <c r="A477" t="s">
+        <v>457</v>
+      </c>
+      <c r="B477" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="478">
+      <c r="A478" t="s">
+        <v>19</v>
+      </c>
+      <c r="B478" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="479">
+      <c r="A479" t="s">
+        <v>458</v>
+      </c>
+      <c r="B479" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="480">
+      <c r="A480" t="s">
+        <v>459</v>
+      </c>
+      <c r="B480" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="481">
+      <c r="A481" t="s">
+        <v>460</v>
+      </c>
+      <c r="B481" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="482">
+      <c r="A482" t="s">
+        <v>461</v>
+      </c>
+      <c r="B482" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="483">
+      <c r="A483" t="s">
+        <v>462</v>
+      </c>
+      <c r="B483" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="484">
+      <c r="A484" t="s">
+        <v>19</v>
+      </c>
+      <c r="B484" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="485">
+      <c r="A485" t="s">
+        <v>463</v>
+      </c>
+      <c r="B485" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="486">
+      <c r="A486" t="s">
+        <v>464</v>
+      </c>
+      <c r="B486" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="487">
+      <c r="A487" t="s">
+        <v>465</v>
+      </c>
+      <c r="B487" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="488">
+      <c r="A488" t="s">
+        <v>466</v>
+      </c>
+      <c r="B488" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="489">
+      <c r="A489" t="s">
+        <v>467</v>
+      </c>
+      <c r="B489" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="490">
+      <c r="A490" t="s">
+        <v>468</v>
+      </c>
+      <c r="B490" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="491">
+      <c r="A491" t="s">
+        <v>469</v>
+      </c>
+      <c r="B491" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="492">
+      <c r="A492" t="s">
+        <v>470</v>
+      </c>
+      <c r="B492" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="493">
+      <c r="A493" t="s">
+        <v>471</v>
+      </c>
+      <c r="B493" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="494">
+      <c r="A494" t="s">
+        <v>472</v>
+      </c>
+      <c r="B494" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="495">
+      <c r="A495" t="s">
+        <v>19</v>
+      </c>
+      <c r="B495" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="496">
+      <c r="A496" t="s">
+        <v>473</v>
+      </c>
+      <c r="B496" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="497">
+      <c r="A497" t="s">
+        <v>474</v>
+      </c>
+      <c r="B497" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="498">
+      <c r="A498" t="s">
+        <v>475</v>
+      </c>
+      <c r="B498" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="499">
+      <c r="A499" t="s">
+        <v>19</v>
+      </c>
+      <c r="B499" t="s">
+        <v>63</v>
+      </c>
+    </row>
+    <row r="500">
+      <c r="A500" t="s">
+        <v>476</v>
+      </c>
+      <c r="B500" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="501">
+      <c r="A501" t="s">
+        <v>477</v>
+      </c>
+      <c r="B501" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="502">
+      <c r="A502" t="s">
+        <v>478</v>
+      </c>
+      <c r="B502" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="503">
+      <c r="A503" t="s">
+        <v>479</v>
+      </c>
+      <c r="B503" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="504">
+      <c r="A504" t="s">
+        <v>480</v>
+      </c>
+      <c r="B504" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="505">
+      <c r="A505" t="s">
+        <v>481</v>
+      </c>
+      <c r="B505" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="506">
+      <c r="A506" t="s">
+        <v>482</v>
+      </c>
+      <c r="B506" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="507">
+      <c r="A507" t="s">
+        <v>483</v>
+      </c>
+      <c r="B507" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="508">
+      <c r="A508" t="s">
+        <v>484</v>
+      </c>
+      <c r="B508" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="509">
+      <c r="A509" t="s">
+        <v>485</v>
+      </c>
+      <c r="B509" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="510">
+      <c r="A510" t="s">
+        <v>486</v>
+      </c>
+      <c r="B510" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="511">
+      <c r="A511" t="s">
+        <v>19</v>
+      </c>
+      <c r="B511" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="512">
+      <c r="A512" t="s">
+        <v>487</v>
+      </c>
+      <c r="B512" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="513">
+      <c r="A513" t="s">
+        <v>488</v>
+      </c>
+      <c r="B513" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="514">
+      <c r="A514" t="s">
+        <v>489</v>
+      </c>
+      <c r="B514" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="515">
+      <c r="A515" t="s">
+        <v>490</v>
+      </c>
+      <c r="B515" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="516">
+      <c r="A516" t="s">
+        <v>491</v>
+      </c>
+      <c r="B516" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="517">
+      <c r="A517" t="s">
+        <v>492</v>
+      </c>
+      <c r="B517" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="518">
+      <c r="A518" t="s">
+        <v>493</v>
+      </c>
+      <c r="B518" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="519">
+      <c r="A519" t="s">
+        <v>494</v>
+      </c>
+      <c r="B519" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="520">
+      <c r="A520" t="s">
+        <v>495</v>
+      </c>
+      <c r="B520" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="521">
+      <c r="A521" t="s">
+        <v>496</v>
+      </c>
+      <c r="B521" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="522">
+      <c r="A522" t="s">
+        <v>497</v>
+      </c>
+      <c r="B522" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="523">
+      <c r="A523" t="s">
+        <v>498</v>
+      </c>
+      <c r="B523" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="524">
+      <c r="A524" t="s">
+        <v>499</v>
+      </c>
+      <c r="B524" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="525">
+      <c r="A525" t="s">
+        <v>104</v>
+      </c>
+      <c r="B525" t="s">
+        <v>105</v>
+      </c>
+    </row>
+    <row r="526">
+      <c r="A526" t="s">
+        <v>500</v>
+      </c>
+      <c r="B526" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="527">
+      <c r="A527" t="s">
+        <v>501</v>
+      </c>
+      <c r="B527" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="528">
+      <c r="A528" t="s">
+        <v>502</v>
+      </c>
+      <c r="B528" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="529">
+      <c r="A529" t="s">
+        <v>503</v>
+      </c>
+      <c r="B529" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="530">
+      <c r="A530" t="s">
+        <v>504</v>
+      </c>
+      <c r="B530" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="531">
+      <c r="A531" t="s">
+        <v>505</v>
+      </c>
+      <c r="B531" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="532">
+      <c r="A532" t="s">
+        <v>506</v>
+      </c>
+      <c r="B532" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="533">
+      <c r="A533" t="s">
+        <v>507</v>
+      </c>
+      <c r="B533" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="534">
+      <c r="A534" t="s">
+        <v>508</v>
+      </c>
+      <c r="B534" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="535">
+      <c r="A535" t="s">
+        <v>509</v>
+      </c>
+      <c r="B535" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="536">
+      <c r="A536" t="s">
+        <v>510</v>
+      </c>
+      <c r="B536" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="537">
+      <c r="A537" t="s">
+        <v>511</v>
+      </c>
+      <c r="B537" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="538">
+      <c r="A538" t="s">
+        <v>512</v>
+      </c>
+      <c r="B538" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="539">
+      <c r="A539" t="s">
+        <v>19</v>
+      </c>
+      <c r="B539" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="540">
+      <c r="A540" t="s">
+        <v>513</v>
+      </c>
+      <c r="B540" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="541">
+      <c r="A541" t="s">
+        <v>514</v>
+      </c>
+      <c r="B541" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="542">
+      <c r="A542" t="s">
+        <v>515</v>
+      </c>
+      <c r="B542" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="543">
+      <c r="A543" t="s">
+        <v>19</v>
+      </c>
+      <c r="B543" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="544">
+      <c r="A544" t="s">
+        <v>516</v>
+      </c>
+      <c r="B544" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="545">
+      <c r="A545" t="s">
+        <v>517</v>
+      </c>
+      <c r="B545" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="546">
+      <c r="A546" t="s">
+        <v>518</v>
+      </c>
+      <c r="B546" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="547">
+      <c r="A547" t="s">
+        <v>519</v>
+      </c>
+      <c r="B547" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="548">
+      <c r="A548" t="s">
+        <v>520</v>
+      </c>
+      <c r="B548" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="549">
+      <c r="A549" t="s">
+        <v>521</v>
+      </c>
+      <c r="B549" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="550">
+      <c r="A550" t="s">
+        <v>522</v>
+      </c>
+      <c r="B550" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="551">
+      <c r="A551" t="s">
+        <v>523</v>
+      </c>
+      <c r="B551" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="552">
+      <c r="A552" t="s">
+        <v>524</v>
+      </c>
+      <c r="B552" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="553">
+      <c r="A553" t="s">
+        <v>19</v>
+      </c>
+      <c r="B553" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="554">
+      <c r="A554" t="s">
+        <v>525</v>
+      </c>
+      <c r="B554" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="555">
+      <c r="A555" t="s">
+        <v>526</v>
+      </c>
+      <c r="B555" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="556">
+      <c r="A556" t="s">
+        <v>527</v>
+      </c>
+      <c r="B556" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="557">
+      <c r="A557" t="s">
+        <v>528</v>
+      </c>
+      <c r="B557" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="558">
+      <c r="A558" t="s">
+        <v>529</v>
+      </c>
+      <c r="B558" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="559">
+      <c r="A559" t="s">
+        <v>530</v>
+      </c>
+      <c r="B559" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="560">
+      <c r="A560" t="s">
+        <v>531</v>
+      </c>
+      <c r="B560" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="561">
+      <c r="A561" t="s">
+        <v>19</v>
+      </c>
+      <c r="B561" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="562">
+      <c r="A562" t="s">
+        <v>532</v>
+      </c>
+      <c r="B562" t="s">
+        <v>270</v>
+      </c>
+    </row>
+    <row r="563">
+      <c r="A563" t="s">
+        <v>533</v>
+      </c>
+      <c r="B563" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="564">
+      <c r="A564" t="s">
+        <v>534</v>
+      </c>
+      <c r="B564" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="565">
+      <c r="A565" t="s">
+        <v>535</v>
+      </c>
+      <c r="B565" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="566">
+      <c r="A566" t="s">
+        <v>536</v>
+      </c>
+      <c r="B566" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="567">
+      <c r="A567" t="s">
+        <v>537</v>
+      </c>
+      <c r="B567" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="568">
+      <c r="A568" t="s">
+        <v>538</v>
+      </c>
+      <c r="B568" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="569">
+      <c r="A569" t="s">
+        <v>539</v>
+      </c>
+      <c r="B569" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="570">
+      <c r="A570" t="s">
+        <v>540</v>
+      </c>
+      <c r="B570" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="571">
+      <c r="A571" t="s">
+        <v>541</v>
+      </c>
+      <c r="B571" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="572">
+      <c r="A572" t="s">
+        <v>542</v>
+      </c>
+      <c r="B572" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="573">
+      <c r="A573" t="s">
+        <v>543</v>
+      </c>
+      <c r="B573" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="574">
+      <c r="A574" t="s">
+        <v>544</v>
+      </c>
+      <c r="B574" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="575">
+      <c r="A575" t="s">
+        <v>545</v>
+      </c>
+      <c r="B575" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="576">
+      <c r="A576" t="s">
+        <v>546</v>
+      </c>
+      <c r="B576" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="577">
+      <c r="A577" t="s">
+        <v>547</v>
+      </c>
+      <c r="B577" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="578">
+      <c r="A578" t="s">
+        <v>548</v>
+      </c>
+      <c r="B578" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="579">
+      <c r="A579" t="s">
+        <v>549</v>
+      </c>
+      <c r="B579" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="580">
+      <c r="A580" t="s">
+        <v>550</v>
+      </c>
+      <c r="B580" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="581">
+      <c r="A581" t="s">
+        <v>551</v>
+      </c>
+      <c r="B581" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="582">
+      <c r="A582" t="s">
+        <v>552</v>
+      </c>
+      <c r="B582" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="583">
+      <c r="A583" t="s">
+        <v>553</v>
+      </c>
+      <c r="B583" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="584">
+      <c r="A584" t="s">
+        <v>554</v>
+      </c>
+      <c r="B584" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="585">
+      <c r="A585" t="s">
+        <v>555</v>
+      </c>
+      <c r="B585" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="586">
+      <c r="A586" t="s">
+        <v>556</v>
+      </c>
+      <c r="B586" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="587">
+      <c r="A587" t="s">
+        <v>19</v>
+      </c>
+      <c r="B587" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="588">
+      <c r="A588" t="s">
+        <v>557</v>
+      </c>
+      <c r="B588" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="589">
+      <c r="A589" t="s">
+        <v>19</v>
+      </c>
+      <c r="B589" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="590">
+      <c r="A590" t="s">
+        <v>558</v>
+      </c>
+      <c r="B590" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="591">
+      <c r="A591" t="s">
+        <v>559</v>
+      </c>
+      <c r="B591" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="592">
+      <c r="A592" t="s">
+        <v>560</v>
+      </c>
+      <c r="B592" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="593">
+      <c r="A593" t="s">
+        <v>561</v>
+      </c>
+      <c r="B593" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="594">
+      <c r="A594" t="s">
+        <v>19</v>
+      </c>
+      <c r="B594" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="595">
+      <c r="A595" t="s">
+        <v>562</v>
+      </c>
+      <c r="B595" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="596">
+      <c r="A596" t="s">
+        <v>563</v>
+      </c>
+      <c r="B596" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="597">
+      <c r="A597" t="s">
+        <v>564</v>
+      </c>
+      <c r="B597" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="598">
+      <c r="A598" t="s">
+        <v>565</v>
+      </c>
+      <c r="B598" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="599">
+      <c r="A599" t="s">
+        <v>566</v>
+      </c>
+      <c r="B599" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="600">
+      <c r="A600" t="s">
+        <v>567</v>
+      </c>
+      <c r="B600" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="601">
+      <c r="A601" t="s">
+        <v>568</v>
+      </c>
+      <c r="B601" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="602">
+      <c r="A602" t="s">
+        <v>569</v>
+      </c>
+      <c r="B602" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="603">
+      <c r="A603" t="s">
+        <v>570</v>
+      </c>
+      <c r="B603" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="604">
+      <c r="A604" t="s">
+        <v>571</v>
+      </c>
+      <c r="B604" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="605">
+      <c r="A605" t="s">
+        <v>572</v>
+      </c>
+      <c r="B605" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="606">
+      <c r="A606" t="s">
+        <v>573</v>
+      </c>
+      <c r="B606" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="607">
+      <c r="A607" t="s">
+        <v>574</v>
+      </c>
+      <c r="B607" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="608">
+      <c r="A608" t="s">
+        <v>575</v>
+      </c>
+      <c r="B608" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="609">
+      <c r="A609" t="s">
+        <v>576</v>
+      </c>
+      <c r="B609" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="610">
+      <c r="A610" t="s">
+        <v>577</v>
+      </c>
+      <c r="B610" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="611">
+      <c r="A611" t="s">
+        <v>578</v>
+      </c>
+      <c r="B611" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="612">
+      <c r="A612" t="s">
+        <v>579</v>
+      </c>
+      <c r="B612" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="613">
+      <c r="A613" t="s">
+        <v>580</v>
+      </c>
+      <c r="B613" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="614">
+      <c r="A614" t="s">
+        <v>581</v>
+      </c>
+      <c r="B614" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="615">
+      <c r="A615" t="s">
+        <v>582</v>
+      </c>
+      <c r="B615" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="616">
+      <c r="A616" t="s">
+        <v>19</v>
+      </c>
+      <c r="B616" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="617">
+      <c r="A617" t="s">
+        <v>583</v>
+      </c>
+      <c r="B617" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="618">
+      <c r="A618" t="s">
+        <v>584</v>
+      </c>
+      <c r="B618" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="619">
+      <c r="A619" t="s">
+        <v>585</v>
+      </c>
+      <c r="B619" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="620">
+      <c r="A620" t="s">
+        <v>586</v>
+      </c>
+      <c r="B620" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="621">
+      <c r="A621" t="s">
+        <v>587</v>
+      </c>
+      <c r="B621" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="622">
+      <c r="A622" t="s">
+        <v>588</v>
+      </c>
+      <c r="B622" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="623">
+      <c r="A623" t="s">
+        <v>589</v>
+      </c>
+      <c r="B623" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="624">
+      <c r="A624" t="s">
+        <v>590</v>
+      </c>
+      <c r="B624" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="625">
+      <c r="A625" t="s">
+        <v>591</v>
+      </c>
+      <c r="B625" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="626">
+      <c r="A626" t="s">
+        <v>104</v>
+      </c>
+      <c r="B626" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="627">
+      <c r="A627" t="s">
+        <v>592</v>
+      </c>
+      <c r="B627" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="628">
+      <c r="A628" t="s">
+        <v>593</v>
+      </c>
+      <c r="B628" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="629">
+      <c r="A629" t="s">
+        <v>19</v>
+      </c>
+      <c r="B629" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="630">
+      <c r="A630" t="s">
+        <v>594</v>
+      </c>
+      <c r="B630" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="631">
+      <c r="A631" t="s">
+        <v>595</v>
+      </c>
+      <c r="B631" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="632">
+      <c r="A632" t="s">
+        <v>596</v>
+      </c>
+      <c r="B632" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="633">
+      <c r="A633" t="s">
+        <v>597</v>
+      </c>
+      <c r="B633" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="634">
+      <c r="A634" t="s">
+        <v>598</v>
+      </c>
+      <c r="B634" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="635">
+      <c r="A635" t="s">
+        <v>599</v>
+      </c>
+      <c r="B635" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="636">
+      <c r="A636" t="s">
+        <v>600</v>
+      </c>
+      <c r="B636" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="637">
+      <c r="A637" t="s">
+        <v>601</v>
+      </c>
+      <c r="B637" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="638">
+      <c r="A638" t="s">
+        <v>602</v>
+      </c>
+      <c r="B638" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="639">
+      <c r="A639" t="s">
+        <v>603</v>
+      </c>
+      <c r="B639" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="640">
+      <c r="A640" t="s">
+        <v>604</v>
+      </c>
+      <c r="B640" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="641">
+      <c r="A641" t="s">
+        <v>605</v>
+      </c>
+      <c r="B641" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="642">
+      <c r="A642" t="s">
+        <v>606</v>
+      </c>
+      <c r="B642" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="643">
+      <c r="A643" t="s">
+        <v>607</v>
+      </c>
+      <c r="B643" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="644">
+      <c r="A644" t="s">
+        <v>608</v>
+      </c>
+      <c r="B644" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="645">
+      <c r="A645" t="s">
+        <v>609</v>
+      </c>
+      <c r="B645" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="646">
+      <c r="A646" t="s">
+        <v>610</v>
+      </c>
+      <c r="B646" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="647">
+      <c r="A647" t="s">
+        <v>611</v>
+      </c>
+      <c r="B647" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="648">
+      <c r="A648" t="s">
+        <v>612</v>
+      </c>
+      <c r="B648" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="649">
+      <c r="A649" t="s">
+        <v>613</v>
+      </c>
+      <c r="B649" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="650">
+      <c r="A650" t="s">
+        <v>614</v>
+      </c>
+      <c r="B650" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="651">
+      <c r="A651" t="s">
+        <v>615</v>
+      </c>
+      <c r="B651" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="652">
+      <c r="A652" t="s">
+        <v>616</v>
+      </c>
+      <c r="B652" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="653">
+      <c r="A653" t="s">
+        <v>617</v>
+      </c>
+      <c r="B653" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="654">
+      <c r="A654" t="s">
+        <v>618</v>
+      </c>
+      <c r="B654" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="655">
+      <c r="A655" t="s">
+        <v>619</v>
+      </c>
+      <c r="B655" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="656">
+      <c r="A656" t="s">
+        <v>620</v>
+      </c>
+      <c r="B656" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="657">
+      <c r="A657" t="s">
+        <v>621</v>
+      </c>
+      <c r="B657" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="658">
+      <c r="A658" t="s">
+        <v>622</v>
+      </c>
+      <c r="B658" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="659">
+      <c r="A659" t="s">
+        <v>623</v>
+      </c>
+      <c r="B659" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="660">
+      <c r="A660" t="s">
+        <v>624</v>
+      </c>
+      <c r="B660" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="661">
+      <c r="A661" t="s">
+        <v>625</v>
+      </c>
+      <c r="B661" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="662">
+      <c r="A662" t="s">
+        <v>626</v>
+      </c>
+      <c r="B662" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="663">
+      <c r="A663" t="s">
+        <v>627</v>
+      </c>
+      <c r="B663" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="664">
+      <c r="A664" t="s">
+        <v>628</v>
+      </c>
+      <c r="B664" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="665">
+      <c r="A665" t="s">
+        <v>629</v>
+      </c>
+      <c r="B665" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="666">
+      <c r="A666" t="s">
+        <v>630</v>
+      </c>
+      <c r="B666" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="667">
+      <c r="A667" t="s">
+        <v>631</v>
+      </c>
+      <c r="B667" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="668">
+      <c r="A668" t="s">
+        <v>632</v>
+      </c>
+      <c r="B668" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="669">
+      <c r="A669" t="s">
+        <v>633</v>
+      </c>
+      <c r="B669" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="670">
+      <c r="A670" t="s">
+        <v>634</v>
+      </c>
+      <c r="B670" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="671">
+      <c r="A671" t="s">
+        <v>635</v>
+      </c>
+      <c r="B671" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="672">
+      <c r="A672" t="s">
+        <v>636</v>
+      </c>
+      <c r="B672" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="673">
+      <c r="A673" t="s">
+        <v>637</v>
+      </c>
+      <c r="B673" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="674">
+      <c r="A674" t="s">
+        <v>638</v>
+      </c>
+      <c r="B674" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="675">
+      <c r="A675" t="s">
+        <v>639</v>
+      </c>
+      <c r="B675" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="676">
+      <c r="A676" t="s">
+        <v>640</v>
+      </c>
+      <c r="B676" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="677">
+      <c r="A677" t="s">
+        <v>641</v>
+      </c>
+      <c r="B677" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="678">
+      <c r="A678" t="s">
+        <v>642</v>
+      </c>
+      <c r="B678" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="679">
+      <c r="A679" t="s">
+        <v>643</v>
+      </c>
+      <c r="B679" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="680">
+      <c r="A680" t="s">
+        <v>644</v>
+      </c>
+      <c r="B680" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="681">
+      <c r="A681" t="s">
+        <v>645</v>
+      </c>
+      <c r="B681" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="682">
+      <c r="A682" t="s">
+        <v>646</v>
+      </c>
+      <c r="B682" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="683">
+      <c r="A683" t="s">
+        <v>647</v>
+      </c>
+      <c r="B683" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="684">
+      <c r="A684" t="s">
+        <v>648</v>
+      </c>
+      <c r="B684" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="685">
+      <c r="A685" t="s">
+        <v>649</v>
+      </c>
+      <c r="B685" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="686">
+      <c r="A686" t="s">
+        <v>650</v>
+      </c>
+      <c r="B686" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="687">
+      <c r="A687" t="s">
+        <v>651</v>
+      </c>
+      <c r="B687" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="688">
+      <c r="A688" t="s">
+        <v>652</v>
+      </c>
+      <c r="B688" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="689">
+      <c r="A689" t="s">
+        <v>653</v>
+      </c>
+      <c r="B689" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="690">
+      <c r="A690" t="s">
+        <v>654</v>
+      </c>
+      <c r="B690" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="691">
+      <c r="A691" t="s">
+        <v>655</v>
+      </c>
+      <c r="B691" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="692">
+      <c r="A692" t="s">
+        <v>656</v>
+      </c>
+      <c r="B692" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="693">
+      <c r="A693" t="s">
+        <v>657</v>
+      </c>
+      <c r="B693" t="s">
+        <v>658</v>
+      </c>
+    </row>
+    <row r="694">
+      <c r="A694" t="s">
+        <v>659</v>
+      </c>
+      <c r="B694" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="695">
+      <c r="A695" t="s">
+        <v>660</v>
+      </c>
+      <c r="B695" t="s">
+        <v>7</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup orientation="portrait" r:id="rId1"/>
+</worksheet>
 </file>